--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/Work/Pluralsight/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="40800" yWindow="2720" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Path:</t>
   </si>
@@ -67,12 +78,96 @@
   </si>
   <si>
     <t>In Process</t>
+  </si>
+  <si>
+    <t>2. jQuery</t>
+  </si>
+  <si>
+    <t>(1) jQuery Fundamentals</t>
+  </si>
+  <si>
+    <t>(2) jQuery UI</t>
+  </si>
+  <si>
+    <t>(3) jQuery In-Depth</t>
+  </si>
+  <si>
+    <t>(1) jQuery Forms and Bootstrap 3</t>
+  </si>
+  <si>
+    <t>(2) Fixing Common jQuery Bugs</t>
+  </si>
+  <si>
+    <t>(3) Useful jQuery Plugins</t>
+  </si>
+  <si>
+    <t>(1) jQuery Tips and Tricks</t>
+  </si>
+  <si>
+    <t>(2) jQuery Advanced Topics</t>
+  </si>
+  <si>
+    <t>3. HTML5</t>
+  </si>
+  <si>
+    <t>4. CSS</t>
+  </si>
+  <si>
+    <t>5. AngularJS</t>
+  </si>
+  <si>
+    <t>6. Node.js</t>
+  </si>
+  <si>
+    <t>7. React</t>
+  </si>
+  <si>
+    <t>(1) AngularJS: Get Started</t>
+  </si>
+  <si>
+    <t>(2) Angular Fundamentals</t>
+  </si>
+  <si>
+    <t>(3) Angular: The Big Picture</t>
+  </si>
+  <si>
+    <t>(1) AngularJS Services In-depth</t>
+  </si>
+  <si>
+    <t>(2) Angular Routing In-depth</t>
+  </si>
+  <si>
+    <t>(3) AngularJS Unit Testing in-depth, Using ngMock</t>
+  </si>
+  <si>
+    <t>(4) Angular Directives Fundamentals</t>
+  </si>
+  <si>
+    <t>(5) AngularJS Line of Business Applications</t>
+  </si>
+  <si>
+    <t>(6) Angular Best Practices</t>
+  </si>
+  <si>
+    <t>(7) AngularJS Patterns: Clean Code</t>
+  </si>
+  <si>
+    <t>(1) AngularJS In-Depth</t>
+  </si>
+  <si>
+    <t>(2) Building a SPA Framework Using AngularJS</t>
+  </si>
+  <si>
+    <t>(2) An AngularJS Playbook</t>
+  </si>
+  <si>
+    <t>(2) Angular 2: First Look</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,35 +537,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -478,7 +573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -486,49 +581,234 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40800" yWindow="2720" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="40860" yWindow="3580" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>Path:</t>
   </si>
@@ -162,6 +162,117 @@
   </si>
   <si>
     <t>(2) Angular 2: First Look</t>
+  </si>
+  <si>
+    <t>(1) HTML Fundamentals</t>
+  </si>
+  <si>
+    <t>(2) HTML5 Fundamentals</t>
+  </si>
+  <si>
+    <t>(3) Semantic HTML</t>
+  </si>
+  <si>
+    <t>(4) Meeting Web Accessibility Guidelines</t>
+  </si>
+  <si>
+    <t>(1) Practical HTML5</t>
+  </si>
+  <si>
+    <t>(2) HTML5 Web Component Fundamentals</t>
+  </si>
+  <si>
+    <t>(3) WebRTC Fundamentals</t>
+  </si>
+  <si>
+    <t>(4) HTML5 Audio, Video, and WebRTC</t>
+  </si>
+  <si>
+    <t>(5) HTML5 Browser Caching</t>
+  </si>
+  <si>
+    <t>(1) HTML5 Advanced Topics</t>
+  </si>
+  <si>
+    <t>(2) HTML5 Web Storage, IndexedDB and File System</t>
+  </si>
+  <si>
+    <t>(1) Introduction to CSS</t>
+  </si>
+  <si>
+    <t>(2) CSS Positioning</t>
+  </si>
+  <si>
+    <t>(3) Responsive Typography</t>
+  </si>
+  <si>
+    <t>(1) A Better CSS: LESS and SASS</t>
+  </si>
+  <si>
+    <t>(2) Responsive Web Design</t>
+  </si>
+  <si>
+    <t>(3) Responsive Websites With Bootstrap 3</t>
+  </si>
+  <si>
+    <t>(4) CSS3 In-Depth</t>
+  </si>
+  <si>
+    <t>(1) Play by Play: HTML, CSS, and JavaScript with Lea Verou</t>
+  </si>
+  <si>
+    <t>(1) Learning To Program - Part 1: Getting Started</t>
+  </si>
+  <si>
+    <t>(2) NPM Playbook</t>
+  </si>
+  <si>
+    <t>(3) Building a JavaScript Development Environment</t>
+  </si>
+  <si>
+    <t>(1) Introduction to Node.js</t>
+  </si>
+  <si>
+    <t>(2) Building Web Applications with Node.js and Express 4.0</t>
+  </si>
+  <si>
+    <t>(3) RESTful Web Services with Node.js and Express</t>
+  </si>
+  <si>
+    <t>(1) Node.js Testing Strategies</t>
+  </si>
+  <si>
+    <t>(2) Node Application Patterns</t>
+  </si>
+  <si>
+    <t>(3) Advanced Node.js</t>
+  </si>
+  <si>
+    <t>(1) React.js: Getting Started</t>
+  </si>
+  <si>
+    <t>(2) React Fundamentals</t>
+  </si>
+  <si>
+    <t>(1) Building Applications with React and Flux</t>
+  </si>
+  <si>
+    <t>(2) Building Applications with React and Redux in ES6</t>
+  </si>
+  <si>
+    <t>(3) Building Scalable React Apps</t>
+  </si>
+  <si>
+    <t>(4) Styling React Components</t>
+  </si>
+  <si>
+    <t>(1) Mastering React Testing with Jest</t>
+  </si>
+  <si>
+    <t>(2) Building a Full-Stack App with React and Express</t>
+  </si>
+  <si>
+    <t>On Hold</t>
   </si>
 </sst>
 </file>
@@ -183,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +313,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -215,12 +332,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -537,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C71"/>
+  <dimension ref="A2:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -694,121 +814,382 @@
         <v>25</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>26</v>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>27</v>
+      <c r="B44" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+      <c r="C80" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+      <c r="C81" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>78</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/Work/Pluralsight/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="40860" yWindow="3580" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="40860" yWindow="3585" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +14,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>Path:</t>
   </si>
@@ -278,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,33 +654,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -693,7 +688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -701,262 +696,268 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>55</v>
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>30</v>
       </c>
@@ -964,7 +965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>31</v>
       </c>
@@ -972,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>32</v>
       </c>
@@ -980,12 +981,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>33</v>
       </c>
@@ -993,7 +994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>34</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>35</v>
       </c>
@@ -1009,62 +1010,62 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>63</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>64</v>
       </c>
@@ -1080,37 +1081,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>69</v>
       </c>
@@ -1118,68 +1119,68 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>72</v>
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>78</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>79</v>
       </c>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
   <si>
     <t>Path:</t>
   </si>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,12 +824,17 @@
       <c r="B39" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>45</v>
       </c>
+      <c r="C40" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -900,7 +905,9 @@
       <c r="B58" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
   <si>
     <t>Path:</t>
   </si>
@@ -268,13 +268,58 @@
   </si>
   <si>
     <t>On Hold</t>
+  </si>
+  <si>
+    <t>Frontend_Dev:</t>
+  </si>
+  <si>
+    <t>Backend_Dev:</t>
+  </si>
+  <si>
+    <t>Misc:</t>
+  </si>
+  <si>
+    <t>(1) Java Fundamentals: The Java Language</t>
+  </si>
+  <si>
+    <t>(2) Java Fundamentals: The Core Platform</t>
+  </si>
+  <si>
+    <t>(3) Java Fundamentals: Collections</t>
+  </si>
+  <si>
+    <t>(4) Java Fundamentals: Generics</t>
+  </si>
+  <si>
+    <t>(1) Java Platform: Working with Databases Using JDBC</t>
+  </si>
+  <si>
+    <t>(2) Applying Concurrency and Multi-threading to Common Java Patterns</t>
+  </si>
+  <si>
+    <t>(3) Java Web Fundamentals</t>
+  </si>
+  <si>
+    <t>(1) Introduction to Testing in Java</t>
+  </si>
+  <si>
+    <t>(2) Test-Driven Development Practices in Java</t>
+  </si>
+  <si>
+    <t>(3) Design Patterns in Java: Structural</t>
+  </si>
+  <si>
+    <t>(4) Design Patterns in Java: Creational</t>
+  </si>
+  <si>
+    <t>(5) Design Patterns in Java: Behavioral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,8 +333,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +373,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -327,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,6 +403,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,552 +724,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C124"/>
+  <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="50.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="I12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="I18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
         <v>33</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
         <v>63</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
         <v>64</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
         <v>69</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
         <v>72</v>
       </c>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
         <v>78</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="E123" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/Work/Pluralsight/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40860" yWindow="3585" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="40840" yWindow="3560" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +19,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>Path:</t>
   </si>
@@ -318,7 +323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -726,30 +731,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="50.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="50.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>81</v>
       </c>
@@ -757,7 +762,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -765,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>2</v>
       </c>
@@ -773,7 +778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>3</v>
       </c>
@@ -787,7 +792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -798,7 +803,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>5</v>
       </c>
@@ -806,17 +811,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>7</v>
       </c>
@@ -824,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>8</v>
       </c>
@@ -832,7 +837,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -840,17 +845,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>11</v>
       </c>
@@ -858,7 +863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -869,7 +874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -877,17 +882,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -895,12 +900,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>17</v>
       </c>
@@ -908,7 +913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>18</v>
       </c>
@@ -916,7 +921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>19</v>
       </c>
@@ -924,52 +929,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>44</v>
       </c>
@@ -977,7 +982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>45</v>
       </c>
@@ -985,135 +990,141 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
         <v>30</v>
       </c>
@@ -1121,7 +1132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
         <v>31</v>
       </c>
@@ -1129,7 +1140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
         <v>32</v>
       </c>
@@ -1137,12 +1148,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
         <v>33</v>
       </c>
@@ -1150,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>34</v>
       </c>
@@ -1158,7 +1169,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>35</v>
       </c>
@@ -1166,62 +1177,62 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
         <v>63</v>
       </c>
@@ -1229,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
         <v>64</v>
       </c>
@@ -1237,37 +1248,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
         <v>69</v>
       </c>
@@ -1275,68 +1286,68 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
         <v>72</v>
       </c>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
         <v>78</v>
       </c>
@@ -1344,12 +1355,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="4" t="s">
         <v>83</v>
       </c>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
   <si>
     <t>Path:</t>
   </si>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -796,8 +796,8 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>85</v>
@@ -806,6 +806,9 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>86</v>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>Path:</t>
   </si>
@@ -731,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -807,8 +807,8 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>86</v>
@@ -828,6 +828,9 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I11" t="s">
         <v>6</v>
       </c>
@@ -835,6 +838,9 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I12" t="s">
         <v>88</v>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/Work/Pluralsight/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40840" yWindow="3560" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="40845" yWindow="3555" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +14,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>Path:</t>
   </si>
@@ -323,7 +318,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,30 +726,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="50.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="50.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>81</v>
       </c>
@@ -762,7 +757,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -770,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>2</v>
       </c>
@@ -778,7 +773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>3</v>
       </c>
@@ -792,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -803,7 +798,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>5</v>
       </c>
@@ -814,17 +809,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>7</v>
       </c>
@@ -835,7 +830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>8</v>
       </c>
@@ -846,25 +841,28 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>9</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>11</v>
       </c>
@@ -872,10 +870,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>12</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I17" t="s">
         <v>91</v>
       </c>
@@ -883,7 +884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -891,17 +892,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -909,12 +910,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>17</v>
       </c>
@@ -922,7 +923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>18</v>
       </c>
@@ -930,7 +931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>19</v>
       </c>
@@ -938,52 +939,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>44</v>
       </c>
@@ -991,80 +992,86 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>55</v>
       </c>
@@ -1072,15 +1079,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>56</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>57</v>
       </c>
@@ -1088,52 +1095,58 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E65" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>30</v>
       </c>
@@ -1141,7 +1154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>31</v>
       </c>
@@ -1149,7 +1162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>32</v>
       </c>
@@ -1157,12 +1170,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>33</v>
       </c>
@@ -1170,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>34</v>
       </c>
@@ -1178,7 +1191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>35</v>
       </c>
@@ -1186,62 +1199,62 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>63</v>
       </c>
@@ -1249,7 +1262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>64</v>
       </c>
@@ -1257,37 +1270,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>69</v>
       </c>
@@ -1295,68 +1308,68 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>72</v>
       </c>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>78</v>
       </c>
@@ -1364,12 +1377,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="4" t="s">
         <v>83</v>
       </c>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
   <si>
     <t>Path:</t>
   </si>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,16 +1004,16 @@
       <c r="D41" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>15</v>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>15</v>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
@@ -1025,10 +1025,16 @@
       <c r="D45" t="s">
         <v>48</v>
       </c>
+      <c r="E45" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>49</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/Work/Pluralsight/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40845" yWindow="3555" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="37360" yWindow="3580" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +19,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
   <si>
     <t>Path:</t>
   </si>
@@ -318,7 +323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -726,30 +731,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="50.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="50.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>81</v>
       </c>
@@ -757,7 +762,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -765,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>2</v>
       </c>
@@ -773,7 +778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>3</v>
       </c>
@@ -787,7 +792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -798,7 +803,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>5</v>
       </c>
@@ -809,17 +814,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>7</v>
       </c>
@@ -830,7 +835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>8</v>
       </c>
@@ -841,7 +846,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -852,17 +857,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>11</v>
       </c>
@@ -870,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -884,7 +889,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -892,17 +897,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -910,12 +915,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>17</v>
       </c>
@@ -923,7 +928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>18</v>
       </c>
@@ -931,7 +936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>19</v>
       </c>
@@ -939,52 +944,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>44</v>
       </c>
@@ -992,7 +997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>45</v>
       </c>
@@ -1000,7 +1005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>46</v>
       </c>
@@ -1008,7 +1013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>47</v>
       </c>
@@ -1016,12 +1021,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>48</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>49</v>
       </c>
@@ -1037,47 +1042,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>55</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>56</v>
       </c>
@@ -1093,7 +1098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>57</v>
       </c>
@@ -1101,17 +1106,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>59</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>60</v>
       </c>
@@ -1127,32 +1132,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
         <v>30</v>
       </c>
@@ -1160,7 +1165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
         <v>31</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
         <v>32</v>
       </c>
@@ -1176,12 +1181,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
         <v>33</v>
       </c>
@@ -1189,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>34</v>
       </c>
@@ -1197,7 +1202,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>35</v>
       </c>
@@ -1205,62 +1210,62 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
         <v>63</v>
       </c>
@@ -1268,7 +1273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
         <v>64</v>
       </c>
@@ -1276,37 +1281,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
         <v>69</v>
       </c>
@@ -1314,68 +1319,73 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
         <v>72</v>
       </c>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E113" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
         <v>78</v>
       </c>
@@ -1383,12 +1393,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="4" t="s">
         <v>83</v>
       </c>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="37360" yWindow="3580" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="37520" yWindow="4840" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
   <si>
     <t>Path:</t>
   </si>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1224,6 +1224,9 @@
       <c r="D84" t="s">
         <v>38</v>
       </c>
+      <c r="E84" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" t="s">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="37520" yWindow="4840" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="4600" yWindow="3740" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
   <si>
     <t>Path:</t>
   </si>
@@ -318,6 +318,24 @@
   </si>
   <si>
     <t>(5) Design Patterns in Java: Behavioral</t>
+  </si>
+  <si>
+    <t>1. Java</t>
+  </si>
+  <si>
+    <t>1. Unit Testing</t>
+  </si>
+  <si>
+    <t>Testing Clientside JavaScript</t>
+  </si>
+  <si>
+    <t>Testing JavaScript for Node.js with Mocha</t>
+  </si>
+  <si>
+    <t>Building a JavaScript Development Environment</t>
+  </si>
+  <si>
+    <t>Testing JavaScript with Jasmine and TypeScript</t>
   </si>
 </sst>
 </file>
@@ -729,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J127"/>
+  <dimension ref="A2:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -767,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1404,6 +1422,34 @@
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="4" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>98</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
   <si>
     <t>Path:</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>Testing JavaScript with Jasmine and TypeScript</t>
+  </si>
+  <si>
+    <t>2. Angular</t>
+  </si>
+  <si>
+    <t>Angular Material Fundamentals</t>
   </si>
 </sst>
 </file>
@@ -747,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J132"/>
+  <dimension ref="A2:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1232,6 +1238,9 @@
       <c r="D82" t="s">
         <v>36</v>
       </c>
+      <c r="E82" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
@@ -1429,7 +1438,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
         <v>98</v>
       </c>
@@ -1437,19 +1446,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>103</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -956,8 +956,8 @@
       <c r="D24" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>15</v>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
@@ -1230,16 +1230,16 @@
       <c r="D81" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>80</v>
+      <c r="E81" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>36</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>15</v>
+      <c r="E82" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/Work/Pluralsight/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="3740" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="4605" yWindow="3735" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +14,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="107">
   <si>
     <t>Path:</t>
   </si>
@@ -342,12 +337,21 @@
   </si>
   <si>
     <t>Angular Material Fundamentals</t>
+  </si>
+  <si>
+    <t>3. D3</t>
+  </si>
+  <si>
+    <t>D3: The Big Picture</t>
+  </si>
+  <si>
+    <t>D3.js Data Visualization Fundamentals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -752,33 +756,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="50.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="50.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>81</v>
       </c>
@@ -786,7 +790,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -794,7 +798,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>2</v>
       </c>
@@ -802,7 +806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>3</v>
       </c>
@@ -816,7 +820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -827,7 +831,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>5</v>
       </c>
@@ -838,17 +842,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>7</v>
       </c>
@@ -859,7 +863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>8</v>
       </c>
@@ -870,7 +874,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -881,17 +885,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>11</v>
       </c>
@@ -899,7 +903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -913,7 +917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -921,17 +925,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -939,12 +943,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>17</v>
       </c>
@@ -952,7 +956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>18</v>
       </c>
@@ -960,7 +964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>19</v>
       </c>
@@ -968,52 +972,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>44</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>45</v>
       </c>
@@ -1029,7 +1033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>46</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>47</v>
       </c>
@@ -1045,12 +1049,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>48</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>49</v>
       </c>
@@ -1066,47 +1070,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>55</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>56</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>57</v>
       </c>
@@ -1130,17 +1134,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>59</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>60</v>
       </c>
@@ -1156,32 +1160,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>30</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>31</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>32</v>
       </c>
@@ -1205,12 +1209,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>33</v>
       </c>
@@ -1218,7 +1222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>34</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>35</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>36</v>
       </c>
@@ -1242,12 +1246,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>38</v>
       </c>
@@ -1255,47 +1259,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>63</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>64</v>
       </c>
@@ -1311,37 +1315,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>69</v>
       </c>
@@ -1349,27 +1353,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>72</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
         <v>73</v>
       </c>
@@ -1385,37 +1389,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>78</v>
       </c>
@@ -1423,22 +1427,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>98</v>
       </c>
@@ -1446,31 +1450,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>103</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>105</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>106</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD41ADE1-1AD1-7240-9747-660A0B6BB59A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="3735" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="1900" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
   <si>
     <t>Path:</t>
   </si>
@@ -346,6 +347,21 @@
   </si>
   <si>
     <t>D3.js Data Visualization Fundamentals</t>
+  </si>
+  <si>
+    <t>8. Angular</t>
+  </si>
+  <si>
+    <t>(1) Angular: The Big Picture</t>
+  </si>
+  <si>
+    <t>(2) Angular: Getting Started</t>
+  </si>
+  <si>
+    <t>(3) Angular CLI</t>
+  </si>
+  <si>
+    <t>(4) Angular CLI</t>
   </si>
 </sst>
 </file>
@@ -757,32 +773,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J142"/>
+  <dimension ref="A2:J165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="B108" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="50.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="50.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>81</v>
       </c>
@@ -790,7 +806,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -798,7 +814,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>2</v>
       </c>
@@ -806,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>3</v>
       </c>
@@ -820,7 +836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -831,7 +847,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>5</v>
       </c>
@@ -842,17 +858,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>7</v>
       </c>
@@ -863,7 +879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>8</v>
       </c>
@@ -874,7 +890,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -885,17 +901,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>11</v>
       </c>
@@ -903,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -917,7 +933,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -925,17 +941,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -943,12 +959,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>17</v>
       </c>
@@ -956,7 +972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>18</v>
       </c>
@@ -964,7 +980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>19</v>
       </c>
@@ -972,52 +988,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>44</v>
       </c>
@@ -1025,7 +1041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>45</v>
       </c>
@@ -1033,7 +1049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>46</v>
       </c>
@@ -1041,7 +1057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>47</v>
       </c>
@@ -1049,12 +1065,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>48</v>
       </c>
@@ -1062,7 +1078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>49</v>
       </c>
@@ -1070,47 +1086,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>55</v>
       </c>
@@ -1118,7 +1134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>56</v>
       </c>
@@ -1126,7 +1142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>57</v>
       </c>
@@ -1134,17 +1150,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>59</v>
       </c>
@@ -1152,7 +1168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>60</v>
       </c>
@@ -1160,32 +1176,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
         <v>30</v>
       </c>
@@ -1193,7 +1209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
         <v>31</v>
       </c>
@@ -1201,7 +1217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
         <v>32</v>
       </c>
@@ -1209,12 +1225,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
         <v>33</v>
       </c>
@@ -1222,7 +1238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>34</v>
       </c>
@@ -1230,7 +1246,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>35</v>
       </c>
@@ -1238,7 +1254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>36</v>
       </c>
@@ -1246,60 +1262,63 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
         <v>38</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
         <v>63</v>
       </c>
@@ -1307,7 +1326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
         <v>64</v>
       </c>
@@ -1315,37 +1334,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
         <v>69</v>
       </c>
@@ -1353,27 +1372,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
         <v>72</v>
       </c>
@@ -1381,7 +1400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
         <v>73</v>
       </c>
@@ -1389,37 +1408,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
         <v>78</v>
       </c>
@@ -1427,75 +1446,200 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="4" t="s">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>108</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>109</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>110</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>111</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>34</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>35</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>38</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>39</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D152" t="s">
         <v>98</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D130" t="s">
+      <c r="E152" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D153" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D154" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D132" t="s">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D155" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D135" t="s">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D158" t="s">
         <v>103</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
+      <c r="E158" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D141" t="s">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
         <v>105</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D142" t="s">
+      <c r="E164" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
         <v>106</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD41ADE1-1AD1-7240-9747-660A0B6BB59A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7D6DD1-7930-9747-BD6E-7F66CE4C0813}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1900" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27520" yWindow="1560" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
   <si>
     <t>Path:</t>
   </si>
@@ -160,18 +160,6 @@
     <t>(2) Angular 2: First Look</t>
   </si>
   <si>
-    <t>(1) HTML Fundamentals</t>
-  </si>
-  <si>
-    <t>(2) HTML5 Fundamentals</t>
-  </si>
-  <si>
-    <t>(3) Semantic HTML</t>
-  </si>
-  <si>
-    <t>(4) Meeting Web Accessibility Guidelines</t>
-  </si>
-  <si>
     <t>(1) Practical HTML5</t>
   </si>
   <si>
@@ -361,7 +349,49 @@
     <t>(3) Angular CLI</t>
   </si>
   <si>
-    <t>(4) Angular CLI</t>
+    <t>(4) Angular Forms</t>
+  </si>
+  <si>
+    <t>(1) Angular Fundamentals</t>
+  </si>
+  <si>
+    <t>(2) Angular Routing</t>
+  </si>
+  <si>
+    <t>(3) Securing Angular Apps with OpenID Connect and OAuth2</t>
+  </si>
+  <si>
+    <t>(4) Unit Testing in Angular</t>
+  </si>
+  <si>
+    <t>(5) Angular Reactive Forms</t>
+  </si>
+  <si>
+    <t>(6) Angular NgRx: Getting Started</t>
+  </si>
+  <si>
+    <t>(7) Angular HTTP Communication</t>
+  </si>
+  <si>
+    <t>(8) Angular Services</t>
+  </si>
+  <si>
+    <t>(1) Angular Best Practices</t>
+  </si>
+  <si>
+    <t>(1) HTML, CSS, and JavaScript: The Big Picture</t>
+  </si>
+  <si>
+    <t>(2) HTML Fundamentals</t>
+  </si>
+  <si>
+    <t>(3) HTML5 Fundamentals</t>
+  </si>
+  <si>
+    <t>(4) Semantic HTML</t>
+  </si>
+  <si>
+    <t>(5) Meeting Web Accessibility Guidelines</t>
   </si>
 </sst>
 </file>
@@ -773,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J165"/>
+  <dimension ref="A2:J164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B108" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -800,10 +830,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -811,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -830,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -844,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -855,12 +885,12 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -887,7 +917,7 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -898,12 +928,12 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -927,10 +957,10 @@
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
@@ -938,17 +968,17 @@
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.2">
@@ -956,7 +986,7 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.2">
@@ -1035,7 +1065,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
@@ -1043,7 +1073,7 @@
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
@@ -1051,7 +1081,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
@@ -1059,28 +1089,28 @@
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>6</v>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>15</v>
@@ -1088,55 +1118,55 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
@@ -1144,33 +1174,33 @@
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>15</v>
@@ -1178,40 +1208,40 @@
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D68" t="s">
-        <v>10</v>
+        <v>56</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>14</v>
@@ -1219,427 +1249,404 @@
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
         <v>32</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D78" t="s">
-        <v>6</v>
+      <c r="E77" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>80</v>
+        <v>33</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>36</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D87" t="s">
-        <v>10</v>
+      <c r="E86" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D95" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>63</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>64</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D100" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D105" t="s">
-        <v>10</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>69</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C111" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D112" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>72</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D116" t="s">
-        <v>6</v>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D122" t="s">
-        <v>10</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>78</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C127" t="s">
-        <v>107</v>
+        <v>74</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D128" t="s">
-        <v>2</v>
+      <c r="C128" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>108</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>109</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>15</v>
+        <v>104</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>110</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>111</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D134" t="s">
-        <v>6</v>
+        <v>106</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>33</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>34</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>35</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>36</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>38</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>39</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D144" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D147" t="s">
-        <v>43</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="4" t="s">
-        <v>83</v>
+      <c r="C150" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C151" t="s">
-        <v>97</v>
+      <c r="D151" t="s">
+        <v>94</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>98</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D157" t="s">
+        <v>99</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D155" t="s">
+    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D163" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C157" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D158" t="s">
-        <v>103</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C163" t="s">
-        <v>104</v>
+      <c r="E163" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>105</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D165" t="s">
-        <v>106</v>
-      </c>
-      <c r="E165" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7D6DD1-7930-9747-BD6E-7F66CE4C0813}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53694C01-6963-2A40-B00A-BB681A94CF30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27520" yWindow="1560" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
   <si>
     <t>Path:</t>
   </si>
@@ -181,15 +181,6 @@
     <t>(2) HTML5 Web Storage, IndexedDB and File System</t>
   </si>
   <si>
-    <t>(1) Introduction to CSS</t>
-  </si>
-  <si>
-    <t>(2) CSS Positioning</t>
-  </si>
-  <si>
-    <t>(3) Responsive Typography</t>
-  </si>
-  <si>
     <t>(1) A Better CSS: LESS and SASS</t>
   </si>
   <si>
@@ -392,6 +383,15 @@
   </si>
   <si>
     <t>(5) Meeting Web Accessibility Guidelines</t>
+  </si>
+  <si>
+    <t>(2) Introduction to CSS</t>
+  </si>
+  <si>
+    <t>(3) CSS Positioning</t>
+  </si>
+  <si>
+    <t>(4) Responsive Typography</t>
   </si>
 </sst>
 </file>
@@ -803,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J164"/>
+  <dimension ref="A2:J165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,10 +830,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -860,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -874,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -885,12 +885,12 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -928,12 +928,12 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -957,10 +957,10 @@
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
@@ -968,17 +968,17 @@
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.2">
@@ -986,7 +986,7 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.2">
@@ -1065,7 +1065,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
@@ -1112,32 +1112,41 @@
       <c r="D46" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>15</v>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>15</v>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>46</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>47</v>
       </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>48</v>
       </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
@@ -1148,11 +1157,17 @@
       <c r="D53" t="s">
         <v>49</v>
       </c>
+      <c r="E53" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>50</v>
       </c>
+      <c r="E54" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
@@ -1166,7 +1181,7 @@
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
@@ -1174,7 +1189,7 @@
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
@@ -1182,33 +1197,33 @@
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D63" t="s">
-        <v>6</v>
+        <v>120</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>55</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>15</v>
@@ -1216,40 +1231,40 @@
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D69" t="s">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D74" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
-        <v>30</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>14</v>
@@ -1257,396 +1272,404 @@
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D79" t="s">
-        <v>6</v>
+      <c r="E78" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>33</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>76</v>
+        <v>33</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>38</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
         <v>39</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D88" t="s">
-        <v>10</v>
+      <c r="E87" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C95" t="s">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D96" t="s">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D97" t="s">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>56</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>57</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
         <v>59</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D98" t="s">
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
         <v>60</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D99" t="s">
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D101" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D102" t="s">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D103" t="s">
+      <c r="E108" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D104" t="s">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D106" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D107" t="s">
-        <v>65</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D108" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D109" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C112" t="s">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D113" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>68</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D117" t="s">
-        <v>6</v>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>66</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D123" t="s">
-        <v>10</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>74</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C128" t="s">
+        <v>71</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>101</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>102</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D129" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D130" t="s">
+      <c r="E133" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
         <v>104</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D131" t="s">
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
         <v>105</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D132" t="s">
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
         <v>106</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D133" t="s">
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D135" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D136" t="s">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D137" t="s">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D138" t="s">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D139" t="s">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D140" t="s">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D141" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D142" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D143" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D145" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="4" t="s">
-        <v>79</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C150" t="s">
-        <v>93</v>
+      <c r="B150" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D151" t="s">
-        <v>94</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>15</v>
+      <c r="C151" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D155" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D158" t="s">
+        <v>96</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C156" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D157" t="s">
-        <v>99</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C162" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D163" t="s">
-        <v>101</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>102</v>
-      </c>
-      <c r="E164" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
+        <v>99</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53694C01-6963-2A40-B00A-BB681A94CF30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7876441A-458F-F44E-B455-927D20666CC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27520" yWindow="1560" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="123">
   <si>
     <t>Path:</t>
   </si>
@@ -196,15 +196,6 @@
     <t>(1) Play by Play: HTML, CSS, and JavaScript with Lea Verou</t>
   </si>
   <si>
-    <t>(1) Learning To Program - Part 1: Getting Started</t>
-  </si>
-  <si>
-    <t>(2) NPM Playbook</t>
-  </si>
-  <si>
-    <t>(3) Building a JavaScript Development Environment</t>
-  </si>
-  <si>
     <t>(1) Introduction to Node.js</t>
   </si>
   <si>
@@ -392,6 +383,18 @@
   </si>
   <si>
     <t>(4) Responsive Typography</t>
+  </si>
+  <si>
+    <t>(1) Node.js: Getting Started</t>
+  </si>
+  <si>
+    <t>(2) Learning To Program - Part 1: Getting Started</t>
+  </si>
+  <si>
+    <t>(3) NPM Playbook</t>
+  </si>
+  <si>
+    <t>(4) Building a JavaScript Development Environment</t>
   </si>
 </sst>
 </file>
@@ -803,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J165"/>
+  <dimension ref="A2:J166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="B80" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,10 +833,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -841,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -860,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -874,7 +877,7 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -885,12 +888,12 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -917,7 +920,7 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -928,12 +931,12 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -957,10 +960,10 @@
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
@@ -968,17 +971,17 @@
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.2">
@@ -986,7 +989,7 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.2">
@@ -1065,7 +1068,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
@@ -1073,7 +1076,7 @@
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
@@ -1081,7 +1084,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
@@ -1089,7 +1092,7 @@
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
@@ -1097,7 +1100,7 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
@@ -1181,7 +1184,7 @@
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
@@ -1189,7 +1192,7 @@
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
@@ -1197,7 +1200,7 @@
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>14</v>
@@ -1205,7 +1208,7 @@
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
@@ -1220,27 +1223,33 @@
       <c r="D65" t="s">
         <v>51</v>
       </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>52</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>15</v>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
         <v>53</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>15</v>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>54</v>
       </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
@@ -1251,6 +1260,9 @@
       <c r="D71" t="s">
         <v>55</v>
       </c>
+      <c r="E71" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
@@ -1304,7 +1316,7 @@
         <v>34</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
@@ -1381,295 +1393,306 @@
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>56</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>14</v>
+        <v>119</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>57</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>15</v>
+        <v>120</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D102" t="s">
-        <v>6</v>
+        <v>121</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D107" t="s">
-        <v>10</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>62</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C113" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D114" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>65</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D118" t="s">
-        <v>6</v>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>63</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D124" t="s">
-        <v>10</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>71</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C129" t="s">
-        <v>100</v>
+        <v>68</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D130" t="s">
-        <v>2</v>
+      <c r="C130" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>101</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>102</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>15</v>
+        <v>98</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>103</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D136" t="s">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D146" t="s">
-        <v>10</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="4" t="s">
-        <v>76</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C151" t="s">
-        <v>90</v>
+      <c r="B151" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D152" t="s">
-        <v>91</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>15</v>
+      <c r="C152" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D156" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D159" t="s">
+        <v>93</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C157" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D158" t="s">
-        <v>96</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C163" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D164" t="s">
-        <v>98</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="165" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>99</v>
-      </c>
-      <c r="E165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D166" t="s">
+        <v>96</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7876441A-458F-F44E-B455-927D20666CC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F75659-093A-9E4B-8671-B7E3A59FBF13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27520" yWindow="1560" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Path:</t>
   </si>
@@ -214,30 +214,6 @@
     <t>(3) Advanced Node.js</t>
   </si>
   <si>
-    <t>(1) React.js: Getting Started</t>
-  </si>
-  <si>
-    <t>(2) React Fundamentals</t>
-  </si>
-  <si>
-    <t>(1) Building Applications with React and Flux</t>
-  </si>
-  <si>
-    <t>(2) Building Applications with React and Redux in ES6</t>
-  </si>
-  <si>
-    <t>(3) Building Scalable React Apps</t>
-  </si>
-  <si>
-    <t>(4) Styling React Components</t>
-  </si>
-  <si>
-    <t>(1) Mastering React Testing with Jest</t>
-  </si>
-  <si>
-    <t>(2) Building a Full-Stack App with React and Express</t>
-  </si>
-  <si>
     <t>On Hold</t>
   </si>
   <si>
@@ -395,6 +371,39 @@
   </si>
   <si>
     <t>(4) Building a JavaScript Development Environment</t>
+  </si>
+  <si>
+    <t>(1) React: The Big Picture</t>
+  </si>
+  <si>
+    <t>(2) React.js: Getting Started</t>
+  </si>
+  <si>
+    <t>(3) React Fundamentals</t>
+  </si>
+  <si>
+    <t>(1) Securing React Apps with Auth0</t>
+  </si>
+  <si>
+    <t>(2) Building Applications with React and Flux</t>
+  </si>
+  <si>
+    <t>(3) Building Applications with React and Redux in ES6</t>
+  </si>
+  <si>
+    <t>(4) Building Scalable React Apps</t>
+  </si>
+  <si>
+    <t>(5) Styling React Components</t>
+  </si>
+  <si>
+    <t>(1) Advanced React.js</t>
+  </si>
+  <si>
+    <t>(2) Mastering React Testing with Jest</t>
+  </si>
+  <si>
+    <t>(3) Building a Full-Stack App with React and Express</t>
   </si>
 </sst>
 </file>
@@ -806,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J166"/>
+  <dimension ref="A2:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B80" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" topLeftCell="B143" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -833,10 +842,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -844,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -863,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -877,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -888,12 +897,12 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -920,7 +929,7 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -931,12 +940,12 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -960,10 +969,10 @@
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
@@ -971,17 +980,17 @@
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.2">
@@ -989,7 +998,7 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.2">
@@ -1068,7 +1077,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
@@ -1076,7 +1085,7 @@
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
@@ -1084,7 +1093,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
@@ -1092,7 +1101,7 @@
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
@@ -1100,7 +1109,7 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
@@ -1184,7 +1193,7 @@
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
@@ -1192,7 +1201,7 @@
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
@@ -1200,7 +1209,7 @@
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>14</v>
@@ -1208,7 +1217,7 @@
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
@@ -1316,7 +1325,7 @@
         <v>34</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
@@ -1393,7 +1402,7 @@
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>15</v>
@@ -1401,7 +1410,7 @@
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>14</v>
@@ -1409,7 +1418,7 @@
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>15</v>
@@ -1417,7 +1426,7 @@
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.2">
@@ -1453,7 +1462,7 @@
         <v>59</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.2">
@@ -1478,7 +1487,7 @@
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>15</v>
@@ -1486,214 +1495,232 @@
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>63</v>
-      </c>
-      <c r="E117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D119" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>67</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D126" t="s">
-        <v>68</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>124</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C130" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D131" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D132" t="s">
-        <v>98</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>14</v>
+      <c r="D130" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D133" t="s">
-        <v>99</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>15</v>
+      <c r="C133" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>100</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>6</v>
+        <v>92</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D139" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>110</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D150" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C152" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D153" t="s">
-        <v>88</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>15</v>
+      <c r="D151" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D154" t="s">
-        <v>89</v>
+      <c r="B154" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D155" t="s">
-        <v>90</v>
+      <c r="C155" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>91</v>
+        <v>80</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D157" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C158" t="s">
-        <v>92</v>
+      <c r="D158" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>93</v>
-      </c>
-      <c r="E159" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D162" t="s">
+        <v>85</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C164" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D165" t="s">
-        <v>95</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D166" t="s">
-        <v>96</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>15</v>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D168" t="s">
+        <v>87</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
+        <v>88</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F75659-093A-9E4B-8671-B7E3A59FBF13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF8C49A-17FD-3948-B1D7-FAC662E9C6BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27520" yWindow="1560" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="144">
   <si>
     <t>Path:</t>
   </si>
@@ -404,6 +404,60 @@
   </si>
   <si>
     <t>(3) Building a Full-Stack App with React and Express</t>
+  </si>
+  <si>
+    <t>Getting Started with D3</t>
+  </si>
+  <si>
+    <t>4. Typescript</t>
+  </si>
+  <si>
+    <t>TypeScript Fundamentals</t>
+  </si>
+  <si>
+    <t>A Practical Start with TypeScript</t>
+  </si>
+  <si>
+    <t>TypeScript In-depth</t>
+  </si>
+  <si>
+    <t>Advanced TypeScript</t>
+  </si>
+  <si>
+    <t>AngularJS with TypeScript</t>
+  </si>
+  <si>
+    <t>Getting Started with TypeScript</t>
+  </si>
+  <si>
+    <t>Play by Play: Angular with Typescript with John Papa</t>
+  </si>
+  <si>
+    <t>Using TypeScript for Large AngularJS Applications</t>
+  </si>
+  <si>
+    <t>5. ES6</t>
+  </si>
+  <si>
+    <t>ES6: The Right Parts</t>
+  </si>
+  <si>
+    <t>JS.Next: ES6</t>
+  </si>
+  <si>
+    <t>JavaScript Fundamentals for ES6</t>
+  </si>
+  <si>
+    <t>Object-oriented Programming in JavaScript - ES6</t>
+  </si>
+  <si>
+    <t>Rapid ES6 Training</t>
+  </si>
+  <si>
+    <t>Using ES6 in Your Node.js Web Application</t>
+  </si>
+  <si>
+    <t>Using ES6 with TypeScript</t>
   </si>
 </sst>
 </file>
@@ -815,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J169"/>
+  <dimension ref="A2:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B143" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1723,6 +1777,96 @@
         <v>14</v>
       </c>
     </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D178" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D179" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D180" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C183" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D184" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D185" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D186" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D187" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D188" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D189" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D190" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF8C49A-17FD-3948-B1D7-FAC662E9C6BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E31F47-33E1-9341-80A2-FCCBA567D1CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27520" yWindow="1560" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="147">
   <si>
     <t>Path:</t>
   </si>
@@ -226,27 +226,6 @@
     <t>Misc:</t>
   </si>
   <si>
-    <t>(1) Java Fundamentals: The Java Language</t>
-  </si>
-  <si>
-    <t>(2) Java Fundamentals: The Core Platform</t>
-  </si>
-  <si>
-    <t>(3) Java Fundamentals: Collections</t>
-  </si>
-  <si>
-    <t>(4) Java Fundamentals: Generics</t>
-  </si>
-  <si>
-    <t>(1) Java Platform: Working with Databases Using JDBC</t>
-  </si>
-  <si>
-    <t>(2) Applying Concurrency and Multi-threading to Common Java Patterns</t>
-  </si>
-  <si>
-    <t>(3) Java Web Fundamentals</t>
-  </si>
-  <si>
     <t>(1) Introduction to Testing in Java</t>
   </si>
   <si>
@@ -458,6 +437,36 @@
   </si>
   <si>
     <t>Using ES6 with TypeScript</t>
+  </si>
+  <si>
+    <t>(1) Modern Java: The Big Picture</t>
+  </si>
+  <si>
+    <t>(2) Java Fundamentals: The Java Language</t>
+  </si>
+  <si>
+    <t>(3) Java Fundamentals: The Core Platform</t>
+  </si>
+  <si>
+    <t>(4) What’s New in Java 11: Long-term Support</t>
+  </si>
+  <si>
+    <t>(5) Java Fundamentals: Collections</t>
+  </si>
+  <si>
+    <t>(6) Java Fundamentals: Generics</t>
+  </si>
+  <si>
+    <t>(1) Programming with Dates and Times in Java 8</t>
+  </si>
+  <si>
+    <t>(2) Java Platform: Working with Databases Using JDBC</t>
+  </si>
+  <si>
+    <t>(3) Applying Concurrency and Multi-threading to Common Java Patterns</t>
+  </si>
+  <si>
+    <t>(4) Java Web Fundamentals</t>
   </si>
 </sst>
 </file>
@@ -871,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -907,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -926,7 +935,7 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -940,7 +949,10 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>138</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -951,18 +963,21 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>6</v>
       </c>
+      <c r="I10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
@@ -972,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -982,9 +997,6 @@
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I12" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
@@ -994,25 +1006,28 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>10</v>
       </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
@@ -1023,28 +1038,25 @@
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="I18" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.2">
@@ -1052,13 +1064,16 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>2</v>
       </c>
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
@@ -1067,6 +1082,9 @@
       <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
@@ -1075,6 +1093,9 @@
       <c r="E24" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
@@ -1131,7 +1152,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
@@ -1139,7 +1160,7 @@
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
@@ -1147,7 +1168,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
@@ -1155,7 +1176,7 @@
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
@@ -1163,7 +1184,7 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
@@ -1247,7 +1268,7 @@
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
@@ -1255,7 +1276,7 @@
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
@@ -1263,7 +1284,7 @@
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>14</v>
@@ -1271,7 +1292,7 @@
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
@@ -1456,7 +1477,7 @@
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>15</v>
@@ -1464,7 +1485,7 @@
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>14</v>
@@ -1472,7 +1493,7 @@
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>15</v>
@@ -1480,7 +1501,7 @@
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.2">
@@ -1541,7 +1562,7 @@
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>15</v>
@@ -1549,7 +1570,7 @@
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>14</v>
@@ -1557,7 +1578,7 @@
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>15</v>
@@ -1570,27 +1591,27 @@
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
@@ -1600,12 +1621,12 @@
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>62</v>
@@ -1613,12 +1634,12 @@
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.2">
@@ -1628,7 +1649,7 @@
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>14</v>
@@ -1636,7 +1657,7 @@
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>15</v>
@@ -1644,7 +1665,7 @@
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>14</v>
@@ -1652,7 +1673,7 @@
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.2">
@@ -1662,42 +1683,42 @@
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
@@ -1707,7 +1728,7 @@
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
@@ -1717,12 +1738,12 @@
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>15</v>
@@ -1730,27 +1751,27 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="161" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>15</v>
@@ -1758,12 +1779,12 @@
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="168" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>14</v>
@@ -1771,7 +1792,7 @@
     </row>
     <row r="169" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>14</v>
@@ -1779,92 +1800,92 @@
     </row>
     <row r="170" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="172" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="183" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="184" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="185" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="186" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="188" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="189" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="190" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E31F47-33E1-9341-80A2-FCCBA567D1CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2382D05-98D3-C346-8AD2-D90046F69176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27520" yWindow="1560" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="153">
   <si>
     <t>Path:</t>
   </si>
@@ -467,6 +467,24 @@
   </si>
   <si>
     <t>(4) Java Web Fundamentals</t>
+  </si>
+  <si>
+    <t>2. Design Patterns in Java</t>
+  </si>
+  <si>
+    <t>(1) Design Patterns in Java: Creational</t>
+  </si>
+  <si>
+    <t>(1) Design Patterns in Java: Structural</t>
+  </si>
+  <si>
+    <t>(1) Design Patterns in Java: Behavioral</t>
+  </si>
+  <si>
+    <t>3. Java EE Foundations</t>
+  </si>
+  <si>
+    <t>(1) Java EE: The Big Picture</t>
   </si>
 </sst>
 </file>
@@ -546,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,6 +582,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="F26" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1105,97 +1126,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:10" ht="32" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>6</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>20</v>
       </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>21</v>
       </c>
+      <c r="I29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:10" ht="32" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H38" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>152</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>99</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>100</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>44</v>
       </c>
@@ -1203,70 +1284,112 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>45</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>46</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>47</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>48</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>49</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>50</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>66</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>96</v>
       </c>
@@ -1274,7 +1397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>101</v>
       </c>
@@ -1282,7 +1405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>102</v>
       </c>
@@ -1290,7 +1413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>103</v>
       </c>
@@ -1298,7 +1421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>6</v>
       </c>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2382D05-98D3-C346-8AD2-D90046F69176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A9C9C6-261B-4E42-86F2-5DB2154AF02E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27520" yWindow="1560" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="161">
   <si>
     <t>Path:</t>
   </si>
@@ -485,6 +485,30 @@
   </si>
   <si>
     <t>(1) Java EE: The Big Picture</t>
+  </si>
+  <si>
+    <t>(2) Java EE: Getting Started</t>
+  </si>
+  <si>
+    <t>(3) Java EE 7 Fundamentals</t>
+  </si>
+  <si>
+    <t>(4) What's New in Java EE 8</t>
+  </si>
+  <si>
+    <t>(1) Java Persistence API (JPA) 2.1</t>
+  </si>
+  <si>
+    <t>(2) Bean Validation 1.1</t>
+  </si>
+  <si>
+    <t>(3) Java EE: Programming Servlets</t>
+  </si>
+  <si>
+    <t>(1) Context and Dependency Injection (CDI 1.1)</t>
+  </si>
+  <si>
+    <t>(2) Building Asynchronous RESTful Services With Jersey</t>
   </si>
 </sst>
 </file>
@@ -901,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F26" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1223,8 +1247,8 @@
       <c r="I40" t="s">
         <v>152</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>15</v>
+      <c r="J40" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.2">
@@ -1235,10 +1259,10 @@
         <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>138</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>15</v>
+        <v>153</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.2">
@@ -1249,7 +1273,7 @@
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.2">
@@ -1260,12 +1284,7 @@
         <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I44" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.2">
@@ -1273,7 +1292,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.2">
@@ -1283,6 +1302,9 @@
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I46" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
@@ -1292,7 +1314,7 @@
         <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.2">
@@ -1303,21 +1325,18 @@
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>47</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>48</v>
       </c>
@@ -1325,71 +1344,49 @@
         <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I51" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>49</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>50</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I54" t="s">
-        <v>66</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>26</v>
       </c>
-      <c r="I57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>2</v>
       </c>
-      <c r="I58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>96</v>
       </c>
@@ -1397,7 +1394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>101</v>
       </c>
@@ -1405,7 +1402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>102</v>
       </c>
@@ -1413,7 +1410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>103</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>6</v>
       </c>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A9C9C6-261B-4E42-86F2-5DB2154AF02E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A260B-4B3A-CE4B-97CB-B35A8E09CD1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27520" yWindow="1560" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="162">
   <si>
     <t>Path:</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>(2) Building Asynchronous RESTful Services With Jersey</t>
+  </si>
+  <si>
+    <t>4. Core Spring</t>
   </si>
 </sst>
 </file>
@@ -925,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1328,7 +1331,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>47</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>48</v>
       </c>
@@ -1347,12 +1350,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I51" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>10</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>49</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>50</v>
       </c>
@@ -1376,33 +1379,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>152</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>153</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>96</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>101</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>102</v>
       </c>
@@ -1410,28 +1441,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>103</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>51</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>52</v>
       </c>
@@ -1439,28 +1484,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
         <v>53</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>54</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
         <v>55</v>
       </c>
@@ -1468,17 +1524,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
         <v>31</v>
       </c>
@@ -1494,7 +1550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>32</v>
       </c>
@@ -1502,7 +1558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>6</v>
       </c>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A260B-4B3A-CE4B-97CB-B35A8E09CD1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE86D523-7E32-764D-B3D6-178015BB2BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27520" yWindow="1560" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="175">
   <si>
     <t>Path:</t>
   </si>
@@ -512,6 +512,45 @@
   </si>
   <si>
     <t>4. Core Spring</t>
+  </si>
+  <si>
+    <t>(1) Spring: The Big Picture</t>
+  </si>
+  <si>
+    <t>(2) Maven Fundamentals</t>
+  </si>
+  <si>
+    <t>(3) Spring Fundamentals</t>
+  </si>
+  <si>
+    <t>(4) Spring WebFlux: Getting Started</t>
+  </si>
+  <si>
+    <t>(1) Introduction to Spring MVC</t>
+  </si>
+  <si>
+    <t>(2) Introduction to Spring MVC 4</t>
+  </si>
+  <si>
+    <t>(3) Building Applications Using Spring JDBC</t>
+  </si>
+  <si>
+    <t>(4) Spring with JPA and Hibernate</t>
+  </si>
+  <si>
+    <t>(5) Getting Started with Spring Data JPA</t>
+  </si>
+  <si>
+    <t>(6) Creating Your First Spring Boot Application</t>
+  </si>
+  <si>
+    <t>(7) Getting Started with Spring Data REST</t>
+  </si>
+  <si>
+    <t>(8) Introduction to Spring MVC</t>
+  </si>
+  <si>
+    <t>(9) Spring Boot: Efficient Development, Configuration, and Deployment</t>
   </si>
 </sst>
 </file>
@@ -928,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="D42" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1433,7 @@
         <v>26</v>
       </c>
       <c r="I57" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>14</v>
@@ -1405,10 +1444,10 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>153</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>14</v>
+        <v>163</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.2">
@@ -1419,7 +1458,10 @@
         <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>154</v>
+        <v>164</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.2">
@@ -1430,7 +1472,10 @@
         <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>155</v>
+        <v>165</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.2">
@@ -1454,7 +1499,7 @@
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I63" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.2">
@@ -1462,7 +1507,7 @@
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.2">
@@ -1473,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.2">
@@ -1483,6 +1528,9 @@
       <c r="E66" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I66" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
@@ -1492,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.2">
@@ -1503,18 +1551,21 @@
         <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I69" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
         <v>10</v>
       </c>
+      <c r="I70" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
@@ -1523,15 +1574,29 @@
       <c r="E71" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>27</v>
       </c>
+      <c r="I74" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
         <v>2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE86D523-7E32-764D-B3D6-178015BB2BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3048A041-CD7B-3149-AE7E-B41503018D0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27520" yWindow="1560" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="178">
   <si>
     <t>Path:</t>
   </si>
@@ -551,6 +551,15 @@
   </si>
   <si>
     <t>(9) Spring Boot: Efficient Development, Configuration, and Deployment</t>
+  </si>
+  <si>
+    <t>(1) Aspect Oriented Programming (AOP) using Spring AOP and AspectJ</t>
+  </si>
+  <si>
+    <t>(2) Spring Security Fundamentals</t>
+  </si>
+  <si>
+    <t>(2) Spring Cloud Fundamentals</t>
   </si>
 </sst>
 </file>
@@ -967,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1588,7 +1597,7 @@
         <v>27</v>
       </c>
       <c r="I74" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.2">
@@ -1596,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.2">
@@ -1605,6 +1614,9 @@
       </c>
       <c r="E76" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3048A041-CD7B-3149-AE7E-B41503018D0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AB075D-A644-9444-92FB-FA6AA973F67D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27520" yWindow="1560" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84:I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1644,16 +1644,16 @@
       <c r="D81" t="s">
         <v>33</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>15</v>
+      <c r="E81" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>34</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>62</v>
+      <c r="E82" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AB075D-A644-9444-92FB-FA6AA973F67D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AB70F8-2AD3-EA48-B838-51271D0D7D37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27520" yWindow="1560" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37660" yWindow="2520" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="178">
   <si>
     <t>Path:</t>
   </si>
@@ -977,7 +977,7 @@
   <dimension ref="A2:J190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B62" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84:I84"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1676,6 +1676,9 @@
       <c r="D85" t="s">
         <v>37</v>
       </c>
+      <c r="E85" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D86" t="s">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AB70F8-2AD3-EA48-B838-51271D0D7D37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A463C850-70B1-EC47-859F-0098149114DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37660" yWindow="2520" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37820" yWindow="3800" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="178">
   <si>
     <t>Path:</t>
   </si>
@@ -154,12 +154,6 @@
     <t>(2) Building a SPA Framework Using AngularJS</t>
   </si>
   <si>
-    <t>(2) An AngularJS Playbook</t>
-  </si>
-  <si>
-    <t>(2) Angular 2: First Look</t>
-  </si>
-  <si>
     <t>(1) Practical HTML5</t>
   </si>
   <si>
@@ -560,6 +554,12 @@
   </si>
   <si>
     <t>(2) Spring Cloud Fundamentals</t>
+  </si>
+  <si>
+    <t>(3) An AngularJS Playbook</t>
+  </si>
+  <si>
+    <t>(4) Angular 2: First Look</t>
   </si>
 </sst>
 </file>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="B63" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -1045,7 +1045,7 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -1059,12 +1059,12 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1107,7 +1107,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1123,7 +1123,7 @@
         <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
@@ -1134,7 +1134,7 @@
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
@@ -1149,10 +1149,10 @@
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.2">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
@@ -1206,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.2">
@@ -1222,7 +1222,7 @@
         <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>15</v>
@@ -1243,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.2">
@@ -1261,7 +1261,7 @@
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.2">
@@ -1274,12 +1274,12 @@
         <v>2</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
@@ -1290,13 +1290,13 @@
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>14</v>
@@ -1304,13 +1304,13 @@
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>14</v>
@@ -1318,24 +1318,24 @@
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.2">
@@ -1348,40 +1348,40 @@
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.2">
@@ -1408,12 +1408,12 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>15</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
         <v>26</v>
       </c>
       <c r="I57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>14</v>
@@ -1453,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>15</v>
@@ -1461,13 +1461,13 @@
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>14</v>
@@ -1475,13 +1475,13 @@
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>15</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>14</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.2">
@@ -1516,56 +1516,56 @@
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.2">
@@ -1573,18 +1573,18 @@
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.2">
@@ -1597,7 +1597,7 @@
         <v>27</v>
       </c>
       <c r="I74" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.2">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.2">
@@ -1616,7 +1616,7 @@
         <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.2">
@@ -1705,20 +1705,32 @@
       <c r="D90" t="s">
         <v>40</v>
       </c>
+      <c r="E90" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
         <v>41</v>
       </c>
+      <c r="E91" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>42</v>
+        <v>176</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>43</v>
+        <v>177</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.2">
@@ -1733,7 +1745,7 @@
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>15</v>
@@ -1741,7 +1753,7 @@
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>14</v>
@@ -1749,7 +1761,7 @@
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>15</v>
@@ -1757,7 +1769,7 @@
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.2">
@@ -1767,7 +1779,7 @@
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>14</v>
@@ -1775,12 +1787,12 @@
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.2">
@@ -1790,20 +1802,20 @@
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.2">
@@ -1818,7 +1830,7 @@
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>15</v>
@@ -1826,7 +1838,7 @@
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>14</v>
@@ -1834,7 +1846,7 @@
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>15</v>
@@ -1847,27 +1859,27 @@
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
@@ -1877,25 +1889,25 @@
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.2">
@@ -1905,7 +1917,7 @@
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>14</v>
@@ -1913,7 +1925,7 @@
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>15</v>
@@ -1921,7 +1933,7 @@
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>14</v>
@@ -1929,7 +1941,7 @@
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.2">
@@ -1939,42 +1951,42 @@
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
@@ -1984,22 +1996,22 @@
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>15</v>
@@ -2007,27 +2019,27 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="161" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>15</v>
@@ -2035,12 +2047,12 @@
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>14</v>
@@ -2048,7 +2060,7 @@
     </row>
     <row r="169" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>14</v>
@@ -2056,92 +2068,92 @@
     </row>
     <row r="170" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="172" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="183" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="184" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="185" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="186" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="187" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="188" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="189" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="190" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A463C850-70B1-EC47-859F-0098149114DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8649AC11-2A54-CE40-A760-B4DDED73F2A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37820" yWindow="3800" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="184">
   <si>
     <t>Path:</t>
   </si>
@@ -202,12 +202,6 @@
     <t>(1) Node.js Testing Strategies</t>
   </si>
   <si>
-    <t>(2) Node Application Patterns</t>
-  </si>
-  <si>
-    <t>(3) Advanced Node.js</t>
-  </si>
-  <si>
     <t>On Hold</t>
   </si>
   <si>
@@ -560,6 +554,30 @@
   </si>
   <si>
     <t>(4) Angular 2: First Look</t>
+  </si>
+  <si>
+    <t>(4) HTML, CSS, and JavaScript: The Big Picture</t>
+  </si>
+  <si>
+    <t>(5) JavaScript: Getting Started</t>
+  </si>
+  <si>
+    <t>(6) JavaScript Fundamentals</t>
+  </si>
+  <si>
+    <t>(2) Practical Cryptography in Node.js</t>
+  </si>
+  <si>
+    <t>(3) Node Application Patterns</t>
+  </si>
+  <si>
+    <t>(4) Advanced Node.js</t>
+  </si>
+  <si>
+    <t>(2) Angular Architecture and Best Practices</t>
+  </si>
+  <si>
+    <t>Design Patterns in Java: The Big Picture</t>
   </si>
 </sst>
 </file>
@@ -974,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J190"/>
+  <dimension ref="A2:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B63" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -989,7 +1007,7 @@
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
     <col min="9" max="9" width="50.83203125" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
@@ -1001,10 +1019,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1012,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1031,7 +1049,7 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -1045,7 +1063,7 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -1059,170 +1077,179 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>6</v>
+        <v>177</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>178</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
       <c r="I19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="I21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="I24" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" ht="32" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>145</v>
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
       <c r="I29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>15</v>
@@ -1230,73 +1257,69 @@
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
       <c r="I31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
       <c r="I34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
       <c r="I35" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>25</v>
+      <c r="D37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="3:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
       <c r="H38" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I39" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>14</v>
+      <c r="C40" t="s">
+        <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>14</v>
@@ -1304,13 +1327,10 @@
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>14</v>
@@ -1318,29 +1338,40 @@
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>6</v>
+        <v>95</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I45" t="s">
         <v>6</v>
@@ -1348,40 +1379,31 @@
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
@@ -1389,7 +1411,7 @@
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
@@ -1399,89 +1421,90 @@
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E56" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>158</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>159</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>160</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
         <v>26</v>
       </c>
-      <c r="I57" t="s">
-        <v>160</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="I60" t="s">
         <v>161</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" t="s">
-        <v>162</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" t="s">
-        <v>163</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>15</v>
@@ -1489,15 +1512,12 @@
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
@@ -1507,653 +1527,693 @@
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
-        <v>50</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I66" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>53</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
       <c r="I73" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
         <v>27</v>
-      </c>
-      <c r="I74" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D75" t="s">
-        <v>2</v>
-      </c>
-      <c r="I75" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D76" t="s">
-        <v>30</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D77" t="s">
-        <v>31</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D81" t="s">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
         <v>33</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D82" t="s">
+      <c r="E84" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
         <v>34</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D83" t="s">
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D84" t="s">
+      <c r="E86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
         <v>36</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D85" t="s">
+      <c r="E87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
         <v>37</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D86" t="s">
+      <c r="E88" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
         <v>38</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D87" t="s">
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
         <v>39</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D89" t="s">
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D90" t="s">
+    <row r="93" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
         <v>40</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D91" t="s">
+      <c r="E93" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
         <v>41</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D92" t="s">
-        <v>176</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D93" t="s">
-        <v>177</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
+      <c r="E94" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>175</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D97" t="s">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D98" t="s">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D99" t="s">
+      <c r="E103" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
         <v>103</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D100" t="s">
-        <v>104</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D101" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D103" t="s">
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D104" t="s">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
         <v>54</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D105" t="s">
+      <c r="E107" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D106" t="s">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D108" t="s">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D109" t="s">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
         <v>57</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D110" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D111" t="s">
-        <v>59</v>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C114" t="s">
-        <v>29</v>
+      <c r="D114" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D116" t="s">
-        <v>106</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D117" t="s">
-        <v>107</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D118" t="s">
-        <v>108</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>6</v>
+        <v>104</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D123" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>115</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D130" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C133" t="s">
-        <v>80</v>
+      <c r="D133" t="s">
+        <v>113</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D135" t="s">
-        <v>81</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D136" t="s">
-        <v>82</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D137" t="s">
-        <v>83</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>14</v>
+      <c r="C137" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>84</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>79</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D143" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D149" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D150" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D145" t="s">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D151" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D146" t="s">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D152" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D147" t="s">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D155" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D148" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D150" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D151" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C155" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>71</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D157" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D158" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D159" t="s">
-        <v>74</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B159" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="161" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C161" t="s">
-        <v>75</v>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>76</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D163" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C167" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D168" t="s">
-        <v>78</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D169" t="s">
-        <v>79</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D170" t="s">
-        <v>117</v>
+      <c r="D167" t="s">
+        <v>74</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>119</v>
+        <v>76</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>120</v>
+        <v>77</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D176" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D177" t="s">
-        <v>123</v>
+      <c r="C177" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D181" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D182" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="183" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C183" t="s">
-        <v>127</v>
+      <c r="D183" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="184" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="185" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D186" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D187" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="188" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D188" t="s">
-        <v>132</v>
+      <c r="C188" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="189" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="190" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D192" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D193" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D194" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D195" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8649AC11-2A54-CE40-A760-B4DDED73F2A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D2469C-01AC-774F-98B0-83D70950C0DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37820" yWindow="3800" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="1960" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1304,7 +1304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="3:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:10" ht="16" x14ac:dyDescent="0.2">
       <c r="H38" s="7" t="s">
         <v>147</v>
       </c>
@@ -1729,8 +1729,8 @@
       <c r="D88" t="s">
         <v>37</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>15</v>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D2469C-01AC-774F-98B0-83D70950C0DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8E8B88-3372-5E42-A7DC-E0076ABE03B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="1960" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1840" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="184">
   <si>
     <t>Path:</t>
   </si>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2131,72 +2131,75 @@
         <v>115</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E178" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
         <v>129</v>
       </c>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8E8B88-3372-5E42-A7DC-E0076ABE03B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91778FE6-57E7-8946-8403-742676F90D5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="1840" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1782,8 +1782,8 @@
       <c r="D96" t="s">
         <v>175</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>15</v>
+      <c r="E96" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91778FE6-57E7-8946-8403-742676F90D5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4277C56-4D0B-D043-A4BE-779D434A23B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="1840" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1982,8 +1982,8 @@
       <c r="D140" t="s">
         <v>80</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>15</v>
+      <c r="E140" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4277C56-4D0B-D043-A4BE-779D434A23B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E03BFC-8BB6-EA41-B3F1-44D38D20ED6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="1840" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1051,8 +1051,8 @@
       <c r="I6" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E03BFC-8BB6-EA41-B3F1-44D38D20ED6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E300210B-9784-FF48-B531-833C7BE65D45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1840" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37020" yWindow="2520" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="184">
   <si>
     <t>Path:</t>
   </si>
@@ -478,27 +478,6 @@
     <t>(2) Java EE: Getting Started</t>
   </si>
   <si>
-    <t>(3) Java EE 7 Fundamentals</t>
-  </si>
-  <si>
-    <t>(4) What's New in Java EE 8</t>
-  </si>
-  <si>
-    <t>(1) Java Persistence API (JPA) 2.1</t>
-  </si>
-  <si>
-    <t>(2) Bean Validation 1.1</t>
-  </si>
-  <si>
-    <t>(3) Java EE: Programming Servlets</t>
-  </si>
-  <si>
-    <t>(1) Context and Dependency Injection (CDI 1.1)</t>
-  </si>
-  <si>
-    <t>(2) Building Asynchronous RESTful Services With Jersey</t>
-  </si>
-  <si>
     <t>4. Core Spring</t>
   </si>
   <si>
@@ -578,6 +557,27 @@
   </si>
   <si>
     <t>Design Patterns in Java: The Big Picture</t>
+  </si>
+  <si>
+    <t>(3) Java Web Fundamentals</t>
+  </si>
+  <si>
+    <t>(2) Practical Enterprise JMS Playbook</t>
+  </si>
+  <si>
+    <t>(1) Building Asynchronous RESTful Services With Jersey</t>
+  </si>
+  <si>
+    <t>(1) Java EE 7 Fundamentals</t>
+  </si>
+  <si>
+    <t>(2) Java Persistence API 2.2</t>
+  </si>
+  <si>
+    <t>(3) Context and Dependency Injection (CDI 1.1)</t>
+  </si>
+  <si>
+    <t>(4) Bean Validation 1.1</t>
   </si>
 </sst>
 </file>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -1332,8 +1332,8 @@
       <c r="I41" t="s">
         <v>149</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>14</v>
+      <c r="J41" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.2">
@@ -1344,7 +1344,10 @@
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>150</v>
+        <v>177</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.2">
@@ -1354,9 +1357,6 @@
       <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I43" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
@@ -1365,6 +1365,9 @@
       <c r="E44" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I44" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
@@ -1374,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.2">
@@ -1385,12 +1388,12 @@
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I47" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.2">
@@ -1398,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.2">
@@ -1428,7 +1431,7 @@
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.2">
@@ -1439,7 +1442,7 @@
         <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.2">
@@ -1454,9 +1457,6 @@
       <c r="D55" t="s">
         <v>10</v>
       </c>
-      <c r="H55" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
@@ -1465,9 +1465,6 @@
       <c r="E56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I56" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
@@ -1476,27 +1473,15 @@
       <c r="E57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I57" t="s">
-        <v>158</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I58" t="s">
-        <v>159</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>15</v>
+      <c r="H58" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I59" t="s">
-        <v>160</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.2">
@@ -1504,16 +1489,22 @@
         <v>26</v>
       </c>
       <c r="I60" t="s">
-        <v>161</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>2</v>
       </c>
+      <c r="I61" t="s">
+        <v>152</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
@@ -1523,7 +1514,10 @@
         <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>6</v>
+        <v>153</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.2">
@@ -1534,7 +1528,10 @@
         <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>162</v>
+        <v>154</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.2">
@@ -1544,9 +1541,6 @@
       <c r="E64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I64" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
@@ -1556,12 +1550,12 @@
         <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I66" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.2">
@@ -1569,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.2">
@@ -1580,7 +1574,7 @@
         <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.2">
@@ -1591,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.2">
@@ -1602,7 +1596,7 @@
         <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.2">
@@ -1613,7 +1607,12 @@
         <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>170</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.2">
@@ -1621,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.2">
@@ -1632,28 +1631,29 @@
         <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I75" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I76" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>27</v>
       </c>
+      <c r="I77" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>2</v>
       </c>
+      <c r="I78" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
@@ -1662,6 +1662,9 @@
       <c r="E79" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I79" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
@@ -1722,7 +1725,7 @@
         <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.2">
@@ -1772,7 +1775,7 @@
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>15</v>
@@ -1780,7 +1783,7 @@
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>14</v>
@@ -1860,17 +1863,17 @@
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
@@ -2056,7 +2059,7 @@
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E300210B-9784-FF48-B531-833C7BE65D45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5EAF1C-45F9-A249-A534-4F817772D30C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37020" yWindow="2520" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="2140" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="185">
   <si>
     <t>Path:</t>
   </si>
@@ -514,12 +514,6 @@
     <t>(7) Getting Started with Spring Data REST</t>
   </si>
   <si>
-    <t>(8) Introduction to Spring MVC</t>
-  </si>
-  <si>
-    <t>(9) Spring Boot: Efficient Development, Configuration, and Deployment</t>
-  </si>
-  <si>
     <t>(1) Aspect Oriented Programming (AOP) using Spring AOP and AspectJ</t>
   </si>
   <si>
@@ -578,6 +572,15 @@
   </si>
   <si>
     <t>(4) Bean Validation 1.1</t>
+  </si>
+  <si>
+    <t>(2) Spring Framework: Creating Your First Spring Boot Application</t>
+  </si>
+  <si>
+    <t>(3) Spring Framework: Spring Fundamentals</t>
+  </si>
+  <si>
+    <t>(8) Spring Boot: Efficient Development, Configuration, and Deployment</t>
   </si>
 </sst>
 </file>
@@ -994,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="D61" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1085,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -1093,7 +1096,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -1104,7 +1107,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -1344,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>15</v>
@@ -1377,7 +1380,7 @@
         <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.2">
@@ -1388,12 +1391,12 @@
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.2">
@@ -1401,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.2">
@@ -1431,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.2">
@@ -1442,7 +1445,7 @@
         <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.2">
@@ -1457,6 +1460,9 @@
       <c r="D55" t="s">
         <v>10</v>
       </c>
+      <c r="H55" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
@@ -1465,6 +1471,9 @@
       <c r="E56" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I56" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
@@ -1473,27 +1482,27 @@
       <c r="E57" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I57" t="s">
+        <v>151</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H58" t="s">
-        <v>150</v>
+      <c r="I58" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I59" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>26</v>
       </c>
-      <c r="I60" t="s">
-        <v>151</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
@@ -1606,13 +1615,10 @@
       <c r="E71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I71" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.2">
@@ -1620,7 +1626,7 @@
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.2">
@@ -1631,12 +1637,7 @@
         <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I76" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.2">
@@ -1644,7 +1645,7 @@
         <v>27</v>
       </c>
       <c r="I77" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.2">
@@ -1652,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.2">
@@ -1663,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.2">
@@ -1673,6 +1674,9 @@
       <c r="E80" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I80" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
@@ -1725,7 +1729,7 @@
         <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.2">
@@ -1775,7 +1779,7 @@
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>15</v>
@@ -1783,7 +1787,7 @@
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>14</v>
@@ -1863,17 +1867,17 @@
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
@@ -2059,7 +2063,7 @@
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5EAF1C-45F9-A249-A534-4F817772D30C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C95F772-3F0C-494B-B4F7-6A14E6E313E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="2140" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="188">
   <si>
     <t>Path:</t>
   </si>
@@ -328,18 +328,6 @@
     <t>(4) Responsive Typography</t>
   </si>
   <si>
-    <t>(1) Node.js: Getting Started</t>
-  </si>
-  <si>
-    <t>(2) Learning To Program - Part 1: Getting Started</t>
-  </si>
-  <si>
-    <t>(3) NPM Playbook</t>
-  </si>
-  <si>
-    <t>(4) Building a JavaScript Development Environment</t>
-  </si>
-  <si>
     <t>(1) React: The Big Picture</t>
   </si>
   <si>
@@ -581,6 +569,27 @@
   </si>
   <si>
     <t>(8) Spring Boot: Efficient Development, Configuration, and Deployment</t>
+  </si>
+  <si>
+    <t>(1) Node.js: The Big Picture</t>
+  </si>
+  <si>
+    <t>(2) Node.js: Getting Started</t>
+  </si>
+  <si>
+    <t>(3) Learning To Program - Part 1: Getting Started</t>
+  </si>
+  <si>
+    <t>(4) NPM Playbook</t>
+  </si>
+  <si>
+    <t>(5) Building a JavaScript Development Environment</t>
+  </si>
+  <si>
+    <t>6. Node</t>
+  </si>
+  <si>
+    <t>Play by Play: Build a Serverless Node Web API</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J195"/>
+  <dimension ref="A2:J199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D61" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1061,7 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>
@@ -1066,7 +1075,7 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -1080,40 +1089,40 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1132,7 +1141,7 @@
         <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1143,7 +1152,7 @@
         <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1154,12 +1163,12 @@
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
@@ -1236,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.2">
@@ -1252,7 +1261,7 @@
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>15</v>
@@ -1276,7 +1285,7 @@
         <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.2">
@@ -1294,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.2">
@@ -1309,7 +1318,7 @@
     </row>
     <row r="38" spans="3:10" ht="16" x14ac:dyDescent="0.2">
       <c r="H38" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.2">
@@ -1322,7 +1331,7 @@
         <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>14</v>
@@ -1333,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>15</v>
@@ -1347,7 +1356,7 @@
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>15</v>
@@ -1380,7 +1389,7 @@
         <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.2">
@@ -1391,12 +1400,12 @@
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I47" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.2">
@@ -1404,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.2">
@@ -1434,7 +1443,7 @@
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.2">
@@ -1445,7 +1454,7 @@
         <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.2">
@@ -1461,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="H55" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.2">
@@ -1483,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>14</v>
@@ -1491,12 +1500,12 @@
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I58" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I59" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.2">
@@ -1509,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>15</v>
@@ -1523,7 +1532,7 @@
         <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>14</v>
@@ -1537,7 +1546,7 @@
         <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>15</v>
@@ -1564,7 +1573,7 @@
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I66" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.2">
@@ -1572,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.2">
@@ -1583,7 +1592,7 @@
         <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.2">
@@ -1594,7 +1603,7 @@
         <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.2">
@@ -1605,7 +1614,7 @@
         <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.2">
@@ -1618,7 +1627,7 @@
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I72" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.2">
@@ -1626,7 +1635,7 @@
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.2">
@@ -1637,7 +1646,7 @@
         <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.2">
@@ -1653,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.2">
@@ -1664,7 +1673,7 @@
         <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.2">
@@ -1675,7 +1684,7 @@
         <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.2">
@@ -1729,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.2">
@@ -1779,7 +1788,7 @@
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>15</v>
@@ -1787,7 +1796,7 @@
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>14</v>
@@ -1805,189 +1814,186 @@
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>100</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>14</v>
+        <v>182</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>102</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>15</v>
+        <v>183</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D106" t="s">
-        <v>6</v>
+        <v>184</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>54</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D111" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C118" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D119" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>104</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>105</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>106</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D124" t="s">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>102</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D131" t="s">
-        <v>10</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>113</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C137" t="s">
+        <v>109</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D138" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>79</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>14</v>
@@ -1995,7 +2001,7 @@
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>14</v>
@@ -2003,131 +2009,131 @@
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
+        <v>81</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D144" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D153" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D154" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B159" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D157" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B160" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C160" t="s">
+    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D161" t="s">
-        <v>69</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C166" t="s">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D167" t="s">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D168" t="s">
         <v>74</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C172" t="s">
+      <c r="E168" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D173" t="s">
-        <v>76</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>14</v>
@@ -2135,95 +2141,113 @@
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C177" t="s">
-        <v>116</v>
+        <v>77</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D178" t="s">
-        <v>117</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>15</v>
+      <c r="C178" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="185" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C188" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D186" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D189" t="s">
-        <v>126</v>
+      <c r="C189" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D196" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C198" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D199" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C95F772-3F0C-494B-B4F7-6A14E6E313E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95079D9E-BDCA-304A-8F85-D24AA84E5557}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="2140" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="189">
   <si>
     <t>Path:</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>Play by Play: Build a Serverless Node Web API</t>
+  </si>
+  <si>
+    <t>Angular Component Communication</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2126,6 +2129,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
+        <v>188</v>
+      </c>
+    </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>75</v>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95079D9E-BDCA-304A-8F85-D24AA84E5557}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6234B62C-8740-6D43-90E9-F0E3EDABA05F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="2140" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7540" yWindow="1960" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="197">
   <si>
     <t>Path:</t>
   </si>
@@ -593,6 +593,30 @@
   </si>
   <si>
     <t>Angular Component Communication</t>
+  </si>
+  <si>
+    <t>7. RxJS</t>
+  </si>
+  <si>
+    <t>RxJS: The Big Picture</t>
+  </si>
+  <si>
+    <t>RxJS: Getting Started</t>
+  </si>
+  <si>
+    <t>Learning RxJS Operators by Example Playbook</t>
+  </si>
+  <si>
+    <t>Getting Started with Reactive Programming Using RxJS</t>
+  </si>
+  <si>
+    <t>Unit Testing RxJS with Marble Diagrams</t>
+  </si>
+  <si>
+    <t>Play by Play: Angular 2/RxJS/HTTP and RESTful Services with John Papa and Dan Wahlin</t>
+  </si>
+  <si>
+    <t>RxJS in Angular: Reactive Development</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J199"/>
+  <dimension ref="A2:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2258,6 +2282,46 @@
         <v>187</v>
       </c>
     </row>
+    <row r="203" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C203" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="204" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D204" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D205" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D206" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="207" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D207" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D208" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D209" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D210" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6234B62C-8740-6D43-90E9-F0E3EDABA05F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CD4F7-5317-5F49-9758-8810365541E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="1960" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7540" yWindow="1940" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="197">
   <si>
     <t>Path:</t>
   </si>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D213" sqref="D213"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1801,8 +1801,8 @@
       <c r="D93" t="s">
         <v>40</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>15</v>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.2">
@@ -2046,68 +2046,86 @@
       <c r="D143" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E143" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E146" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E147" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E150" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E152" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E153" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="4" t="s">
         <v>61</v>
       </c>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CD4F7-5317-5F49-9758-8810365541E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A00B21-B46D-BA40-BF9D-4E3BE808A7AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7540" yWindow="1940" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2211,8 +2211,8 @@
       <c r="D179" t="s">
         <v>113</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>15</v>
+      <c r="E179" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A00B21-B46D-BA40-BF9D-4E3BE808A7AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B583892C-15EE-374A-A931-4ED1156FDAA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7540" yWindow="1940" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="197">
   <si>
     <t>Path:</t>
   </si>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1229,6 +1229,9 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I21" t="s">
         <v>63</v>
       </c>
@@ -2270,62 +2273,65 @@
         <v>124</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C203" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E204" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
         <v>193</v>
       </c>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B583892C-15EE-374A-A931-4ED1156FDAA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9343E138-057C-B94B-9416-D1F24E1DE5C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7540" yWindow="1940" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="197">
   <si>
     <t>Path:</t>
   </si>
@@ -1034,7 +1034,7 @@
   <dimension ref="A2:J210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A183" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2320,6 +2320,9 @@
       <c r="D205" t="s">
         <v>191</v>
       </c>
+      <c r="E205" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="206" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D206" t="s">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9343E138-057C-B94B-9416-D1F24E1DE5C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE268C3-45DC-F74F-A5F5-3294146E166A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7540" yWindow="1940" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="197">
   <si>
     <t>Path:</t>
   </si>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2282,6 +2282,9 @@
       <c r="D194" t="s">
         <v>126</v>
       </c>
+      <c r="E194" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="195" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
@@ -2312,8 +2315,8 @@
       <c r="D204" t="s">
         <v>190</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>15</v>
+      <c r="E204" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE268C3-45DC-F74F-A5F5-3294146E166A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B40FE92-B772-6C4C-8A53-E6BD59E1B69B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="1940" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41400" yWindow="840" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E194" sqref="E194"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2282,8 +2282,8 @@
       <c r="D194" t="s">
         <v>126</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>15</v>
+      <c r="E194" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B40FE92-B772-6C4C-8A53-E6BD59E1B69B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E463466F-E40E-A242-B6E7-76C3B6ECA012}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41400" yWindow="840" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9620" yWindow="3460" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1229,8 +1229,8 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>15</v>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I21" t="s">
         <v>63</v>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E463466F-E40E-A242-B6E7-76C3B6ECA012}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3635A172-733A-AE4F-A051-85985DA09685}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9620" yWindow="3460" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="197">
   <si>
     <t>Path:</t>
   </si>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2096,13 +2096,16 @@
       <c r="D151" t="s">
         <v>88</v>
       </c>
+      <c r="E151" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
         <v>89</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>15</v>
+      <c r="E152" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3635A172-733A-AE4F-A051-85985DA09685}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E26FBD-F400-6C40-A16F-35BD145AA299}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9620" yWindow="3460" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="197">
   <si>
     <t>Path:</t>
   </si>
@@ -1034,7 +1034,7 @@
   <dimension ref="A2:J210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A132" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H152" sqref="H152"/>
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2078,11 +2078,17 @@
       <c r="D148" t="s">
         <v>85</v>
       </c>
+      <c r="E148" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
         <v>86</v>
       </c>
+      <c r="E149" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
@@ -2112,8 +2118,8 @@
       <c r="D153" t="s">
         <v>90</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>15</v>
+      <c r="E153" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
@@ -2125,10 +2131,16 @@
       <c r="D156" t="s">
         <v>91</v>
       </c>
+      <c r="E156" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
         <v>169</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E26FBD-F400-6C40-A16F-35BD145AA299}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2A8BAC-87ED-F240-B41C-9352FF980A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9620" yWindow="3460" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="3460" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="200">
   <si>
     <t>Path:</t>
   </si>
@@ -617,6 +617,15 @@
   </si>
   <si>
     <t>RxJS in Angular: Reactive Development</t>
+  </si>
+  <si>
+    <t>8. OAuth 2</t>
+  </si>
+  <si>
+    <t>Getting Started with OAuth 2.0</t>
+  </si>
+  <si>
+    <t>OAuth2 and OpenID Connect Strategies for AngularJS and ASP.NET</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J210"/>
+  <dimension ref="A2:J214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2078,8 +2087,8 @@
       <c r="D148" t="s">
         <v>85</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>58</v>
+      <c r="E148" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
@@ -2357,14 +2366,35 @@
         <v>193</v>
       </c>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D209" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D210" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="212" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C212" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="213" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D213" t="s">
+        <v>198</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D214" t="s">
+        <v>199</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2A8BAC-87ED-F240-B41C-9352FF980A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16451443-C0A8-8843-A9AF-3E3B2AF7991B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3460" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1043,7 +1043,7 @@
   <dimension ref="A2:J214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A198" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D220" sqref="D220"/>
+      <selection activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2385,8 +2385,8 @@
       <c r="D213" t="s">
         <v>198</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>15</v>
+      <c r="E213" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16451443-C0A8-8843-A9AF-3E3B2AF7991B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55D8959-9591-0F46-9D46-2743AF0B64A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3460" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E222" sqref="E222"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2095,8 +2095,8 @@
       <c r="D149" t="s">
         <v>86</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>58</v>
+      <c r="E149" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55D8959-9591-0F46-9D46-2743AF0B64A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B78A4E-333B-1E4E-8A45-9EB72D4895D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3460" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2058,8 +2058,8 @@
       <c r="D143" t="s">
         <v>82</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>15</v>
+      <c r="E143" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B78A4E-333B-1E4E-8A45-9EB72D4895D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B940D2E3-35E0-FA4D-B386-584D66010094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3460" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="200">
   <si>
     <t>Path:</t>
   </si>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2103,8 +2103,8 @@
       <c r="D150" t="s">
         <v>87</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>15</v>
+      <c r="E150" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
@@ -2201,6 +2201,9 @@
     <row r="169" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
         <v>188</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B940D2E3-35E0-FA4D-B386-584D66010094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C1E1BA-536A-E94F-8898-72782B61CEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3460" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="201">
   <si>
     <t>Path:</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>OAuth2 and OpenID Connect Strategies for AngularJS and ASP.NET</t>
+  </si>
+  <si>
+    <t>AngularJS Security Fundamentals</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2206,6 +2209,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
+        <v>200</v>
+      </c>
+    </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>75</v>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C1E1BA-536A-E94F-8898-72782B61CEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44C1494-7994-5C40-A145-F462007FF232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3460" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="201">
   <si>
     <t>Path:</t>
   </si>
@@ -1045,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1858,6 +1858,9 @@
       <c r="D101" t="s">
         <v>181</v>
       </c>
+      <c r="E101" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D102" t="s">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,12 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44C1494-7994-5C40-A145-F462007FF232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9E13BE-5780-D948-BD1C-A247532E4EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="3460" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="3460" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
+    <sheet name="Backend Dev" sheetId="2" r:id="rId2"/>
+    <sheet name="AWS" sheetId="3" r:id="rId3"/>
+    <sheet name="Misc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="202">
   <si>
     <t>Path:</t>
   </si>
@@ -629,6 +632,9 @@
   </si>
   <si>
     <t>AngularJS Security Fundamentals</t>
+  </si>
+  <si>
+    <t>AWS:</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J214"/>
+  <dimension ref="A2:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1063,215 +1069,141 @@
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>165</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="I24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>17</v>
       </c>
@@ -1279,132 +1211,79 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I29" t="s">
-        <v>140</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>20</v>
       </c>
-      <c r="I31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>21</v>
       </c>
-      <c r="I32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="I35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="3:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="H38" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>25</v>
       </c>
-      <c r="I40" t="s">
-        <v>144</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>2</v>
       </c>
-      <c r="I41" t="s">
-        <v>145</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>92</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I42" t="s">
-        <v>171</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>93</v>
       </c>
@@ -1412,53 +1291,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>94</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>95</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>96</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I46" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I47" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="I48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>42</v>
       </c>
@@ -1466,40 +1328,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>44</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I51" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>45</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>46</v>
       </c>
@@ -1507,94 +1360,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>10</v>
       </c>
-      <c r="H55" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>47</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>48</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I57" t="s">
-        <v>147</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I58" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I59" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>2</v>
       </c>
-      <c r="I61" t="s">
-        <v>148</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>92</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I62" t="s">
-        <v>149</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>97</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I63" t="s">
-        <v>150</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>98</v>
       </c>
@@ -1602,64 +1415,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>99</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I66" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="I67" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>49</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I68" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
         <v>50</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I69" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
         <v>51</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I70" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
         <v>52</v>
       </c>
@@ -1667,69 +1460,46 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I72" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
         <v>10</v>
       </c>
-      <c r="I73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
         <v>53</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I74" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>27</v>
       </c>
-      <c r="I77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>2</v>
       </c>
-      <c r="I78" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
         <v>30</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I79" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>31</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>32</v>
       </c>
@@ -1737,12 +1507,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
         <v>33</v>
       </c>
@@ -1750,40 +1520,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
         <v>34</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
         <v>35</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H86" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
         <v>36</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I87" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
         <v>37</v>
       </c>
@@ -1791,7 +1553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
         <v>38</v>
       </c>
@@ -1799,7 +1561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
         <v>39</v>
       </c>
@@ -1807,12 +1569,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
         <v>40</v>
       </c>
@@ -1820,7 +1582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
         <v>41</v>
       </c>
@@ -1828,7 +1590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
         <v>161</v>
       </c>
@@ -1836,7 +1598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
         <v>162</v>
       </c>
@@ -2159,260 +1921,1052 @@
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C161" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D162" t="s">
-        <v>69</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D163" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D164" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D165" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C167" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D168" t="s">
-        <v>74</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D169" t="s">
-        <v>188</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D170" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C173" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D174" t="s">
-        <v>76</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D175" t="s">
-        <v>77</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D176" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C178" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D179" t="s">
-        <v>113</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D180" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D181" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D182" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D183" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D184" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D185" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D186" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C189" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D190" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D191" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D192" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D193" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D194" t="s">
-        <v>126</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D195" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D196" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C198" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D199" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C203" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D204" t="s">
-        <v>190</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D205" t="s">
-        <v>191</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D206" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D207" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="208" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D208" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D209" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D210" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="212" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C212" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="213" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D213" t="s">
-        <v>198</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D214" t="s">
-        <v>199</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B160" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568DD5E0-8812-F745-B0FF-3B6970B39263}">
+  <dimension ref="A2:F87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C38" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076B4C54-1F2D-3F42-8204-6CD64AE9583C}">
+  <dimension ref="A2:F87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C38" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
+  <dimension ref="A1:E56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9E13BE-5780-D948-BD1C-A247532E4EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D97A18-25BD-4541-8B38-1E0043AB4EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="3460" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="204">
   <si>
     <t>Path:</t>
   </si>
@@ -635,6 +635,12 @@
   </si>
   <si>
     <t>AWS:</t>
+  </si>
+  <si>
+    <t>9. Cookie</t>
+  </si>
+  <si>
+    <t>Web App Hacking: Cookie Attacks</t>
   </si>
 </sst>
 </file>
@@ -2693,10 +2699,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2966,6 +2972,19 @@
         <v>15</v>
       </c>
     </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D97A18-25BD-4541-8B38-1E0043AB4EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D19A40-2F7E-444F-ABFF-AC389DA53424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="204">
   <si>
     <t>Path:</t>
   </si>
@@ -1057,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H160"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2701,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2795,14 +2795,17 @@
       <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>111</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
@@ -2981,8 +2984,8 @@
       <c r="D59" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>15</v>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D19A40-2F7E-444F-ABFF-AC389DA53424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4622C67-5D92-964E-9ACB-3B5865024DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
     <sheet name="Backend Dev" sheetId="2" r:id="rId2"/>
     <sheet name="AWS" sheetId="3" r:id="rId3"/>
     <sheet name="Misc" sheetId="4" r:id="rId4"/>
+    <sheet name="UX-Design" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="215">
   <si>
     <t>Path:</t>
   </si>
@@ -641,6 +642,39 @@
   </si>
   <si>
     <t>Web App Hacking: Cookie Attacks</t>
+  </si>
+  <si>
+    <t>UX-Design:</t>
+  </si>
+  <si>
+    <t>1. Sketch</t>
+  </si>
+  <si>
+    <t>Introduction to Sketch</t>
+  </si>
+  <si>
+    <t>Sketch Fundamentals</t>
+  </si>
+  <si>
+    <t>Creating a Style Guide with Sketch</t>
+  </si>
+  <si>
+    <t>Website Planning and Design in Sketch</t>
+  </si>
+  <si>
+    <t>2. UX Research</t>
+  </si>
+  <si>
+    <t>(1) UX Strategy Fundamentals</t>
+  </si>
+  <si>
+    <t>(1) Conducting UX Research</t>
+  </si>
+  <si>
+    <t>(2) UX Research Analysis</t>
+  </si>
+  <si>
+    <t>(1) UX User Testing</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2321,7 +2355,7 @@
   <dimension ref="A2:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2699,10 +2733,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A2:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2712,62 +2746,55 @@
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -2775,218 +2802,465 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>15</v>
+        <v>190</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
-        <v>198</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
         <v>199</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
+      <c r="E57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9ABC91-AC07-7449-9663-5AC028EFD06D}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4622C67-5D92-964E-9ACB-3B5865024DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00DC7C-33CA-A249-B051-7E36D18DF5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="215">
   <si>
     <t>Path:</t>
   </si>
@@ -3033,7 +3033,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3077,6 +3077,9 @@
       <c r="D6" t="s">
         <v>207</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00DC7C-33CA-A249-B051-7E36D18DF5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C25738-E214-BA48-8B33-632E687061FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="216">
   <si>
     <t>Path:</t>
   </si>
@@ -675,6 +675,9 @@
   </si>
   <si>
     <t>(1) UX User Testing</t>
+  </si>
+  <si>
+    <t>9. Building Websites with HTML, CSS and JavaScript</t>
   </si>
 </sst>
 </file>
@@ -1089,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H160"/>
+  <dimension ref="A2:H161"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1962,6 +1965,17 @@
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="4"/>
+      <c r="C160" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D161" t="s">
+        <v>92</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2735,7 +2749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A2:F60"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="109" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -3032,7 +3046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9ABC91-AC07-7449-9663-5AC028EFD06D}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+    <sheetView zoomScale="123" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C25738-E214-BA48-8B33-632E687061FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B2D42F-2DF2-2440-93E5-E43C99C732F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="217">
   <si>
     <t>Path:</t>
   </si>
@@ -678,6 +678,9 @@
   </si>
   <si>
     <t>9. Building Websites with HTML, CSS and JavaScript</t>
+  </si>
+  <si>
+    <t>(2) Building Websites with HTML, CSS, and JavaScript: Getting Started</t>
   </si>
 </sst>
 </file>
@@ -1092,18 +1095,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H161"/>
+  <dimension ref="A2:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="60.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
@@ -1975,6 +1978,14 @@
       </c>
       <c r="E161" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D162" t="s">
+        <v>216</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B2D42F-2DF2-2440-93E5-E43C99C732F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE8C995-7C6A-524B-A0B1-0AECA139EB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="218">
   <si>
     <t>Path:</t>
   </si>
@@ -681,6 +681,9 @@
   </si>
   <si>
     <t>(2) Building Websites with HTML, CSS, and JavaScript: Getting Started</t>
+  </si>
+  <si>
+    <t>(3) Building Websites with HTML</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H162"/>
+  <dimension ref="A2:H163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G164" sqref="G164"/>
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1986,6 +1989,11 @@
       </c>
       <c r="E162" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D163" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE8C995-7C6A-524B-A0B1-0AECA139EB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE84BA1-3A88-6940-A50E-3D8ADB185397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="219">
   <si>
     <t>Path:</t>
   </si>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t>(3) Building Websites with HTML</t>
+  </si>
+  <si>
+    <t>(4) Working with Text and Lists in HTML</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H163"/>
+  <dimension ref="A2:H164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1994,6 +1997,11 @@
     <row r="163" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D163" s="7" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE84BA1-3A88-6940-A50E-3D8ADB185397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E9712E-22E7-FA4E-9A82-E8B6C2EAA3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="220">
   <si>
     <t>Path:</t>
   </si>
@@ -687,6 +687,9 @@
   </si>
   <si>
     <t>(4) Working with Text and Lists in HTML</t>
+  </si>
+  <si>
+    <t>(5) Creating Forms in HTML</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H164"/>
+  <dimension ref="A2:H165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="D167" sqref="D167"/>
@@ -2002,6 +2005,11 @@
     <row r="164" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E9712E-22E7-FA4E-9A82-E8B6C2EAA3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2624B8-CDBD-8F4D-9F07-7B37A50D7ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="221">
   <si>
     <t>Path:</t>
   </si>
@@ -690,6 +690,9 @@
   </si>
   <si>
     <t>(5) Creating Forms in HTML</t>
+  </si>
+  <si>
+    <t>(6) Styling Websites with CSS</t>
   </si>
 </sst>
 </file>
@@ -1104,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H165"/>
+  <dimension ref="A2:H166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+      <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2010,6 +2013,11 @@
     <row r="165" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D166" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2624B8-CDBD-8F4D-9F07-7B37A50D7ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606B24E5-346F-5646-9344-388E917181CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="222">
   <si>
     <t>Path:</t>
   </si>
@@ -693,6 +693,9 @@
   </si>
   <si>
     <t>(6) Styling Websites with CSS</t>
+  </si>
+  <si>
+    <t>(7) Creating Page Layouts with CSS</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H166"/>
+  <dimension ref="A2:H167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="D169" sqref="D169"/>
@@ -2018,6 +2021,11 @@
     <row r="166" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606B24E5-346F-5646-9344-388E917181CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D881A0F2-4BB7-5344-B740-07F361C99F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="223">
   <si>
     <t>Path:</t>
   </si>
@@ -696,6 +696,9 @@
   </si>
   <si>
     <t>(7) Creating Page Layouts with CSS</t>
+  </si>
+  <si>
+    <t>(8) Working with Colors and Images in CSS</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H167"/>
+  <dimension ref="A2:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169"/>
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2026,6 +2029,11 @@
     <row r="167" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D168" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D881A0F2-4BB7-5344-B740-07F361C99F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87B3AB7-A9AA-4E4E-894F-57E3B34E07AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="225">
   <si>
     <t>Path:</t>
   </si>
@@ -699,6 +699,12 @@
   </si>
   <si>
     <t>(8) Working with Colors and Images in CSS</t>
+  </si>
+  <si>
+    <t>(9) Adding Graphics to Web Pages Using Canvas and SVG</t>
+  </si>
+  <si>
+    <t>(10) Creating Layouts with CSS Grid</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H168"/>
+  <dimension ref="A2:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2034,6 +2040,16 @@
     <row r="168" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87B3AB7-A9AA-4E4E-894F-57E3B34E07AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D159EB42-6311-1448-8A5F-D3010A765E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="227">
   <si>
     <t>Path:</t>
   </si>
@@ -705,6 +705,12 @@
   </si>
   <si>
     <t>(10) Creating Layouts with CSS Grid</t>
+  </si>
+  <si>
+    <t>(11) Creating Responsive Pages with CSS FlexBox</t>
+  </si>
+  <si>
+    <t>(12) Working with Audio and Video in Web Pages</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H170"/>
+  <dimension ref="A2:H172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2050,6 +2056,16 @@
     <row r="170" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D171" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D172" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D159EB42-6311-1448-8A5F-D3010A765E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D35998-4B1B-4C42-8117-303B35B0243D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="228">
   <si>
     <t>Path:</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>(12) Working with Audio and Video in Web Pages</t>
+  </si>
+  <si>
+    <t>(13) Working with Geolocation in HTML</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H172"/>
+  <dimension ref="A2:H173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2066,6 +2069,11 @@
     <row r="172" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D35998-4B1B-4C42-8117-303B35B0243D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8C0AA6-84D4-6D4E-A321-5D8074FEB2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="230">
   <si>
     <t>Path:</t>
   </si>
@@ -714,6 +714,12 @@
   </si>
   <si>
     <t>(13) Working with Geolocation in HTML</t>
+  </si>
+  <si>
+    <t>(14) Storing Data in HTML</t>
+  </si>
+  <si>
+    <t>(15) Optimizing and Deploying a Website</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H173"/>
+  <dimension ref="A2:H175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2074,6 +2080,16 @@
     <row r="173" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8C0AA6-84D4-6D4E-A321-5D8074FEB2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526F7C3A-676C-E146-A161-73599E8CCE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="231">
   <si>
     <t>Path:</t>
   </si>
@@ -720,6 +720,9 @@
   </si>
   <si>
     <t>(15) Optimizing and Deploying a Website</t>
+  </si>
+  <si>
+    <t>(16) Applying Special Effects to a Site Using CSS</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H175"/>
+  <dimension ref="A2:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2090,6 +2093,11 @@
     <row r="175" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526F7C3A-676C-E146-A161-73599E8CCE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E690CD-2968-EE4A-A29F-87A7D0833669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="232">
   <si>
     <t>Path:</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>(16) Applying Special Effects to a Site Using CSS</t>
+  </si>
+  <si>
+    <t>(17) Debugging Sites Using Chrome DevTools</t>
   </si>
 </sst>
 </file>
@@ -1137,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H176"/>
+  <dimension ref="A2:H177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+      <selection activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2098,6 +2101,11 @@
     <row r="176" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E690CD-2968-EE4A-A29F-87A7D0833669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE649C94-50DE-6145-8505-FABA10CAB2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="233">
   <si>
     <t>Path:</t>
   </si>
@@ -726,6 +726,9 @@
   </si>
   <si>
     <t>(17) Debugging Sites Using Chrome DevTools</t>
+  </si>
+  <si>
+    <t>(18) Understand a Site's Traffic Using Google Analytics</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H177"/>
+  <dimension ref="A2:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D180" sqref="D180"/>
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2106,6 +2109,11 @@
     <row r="177" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D178" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE649C94-50DE-6145-8505-FABA10CAB2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132C9DF5-169D-E64D-8751-BDAFFEA953ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="233">
   <si>
     <t>Path:</t>
   </si>
@@ -1146,7 +1146,7 @@
   <dimension ref="A2:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2060,6 +2060,9 @@
       <c r="D167" t="s">
         <v>221</v>
       </c>
+      <c r="E167" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="168" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
@@ -2075,10 +2078,16 @@
       <c r="D170" t="s">
         <v>224</v>
       </c>
+      <c r="E170" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="171" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
         <v>225</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="4:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132C9DF5-169D-E64D-8751-BDAFFEA953ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870A06DC-3063-5343-B658-D8DDC01478D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="244">
   <si>
     <t>Path:</t>
   </si>
@@ -729,6 +729,39 @@
   </si>
   <si>
     <t>(18) Understand a Site's Traffic Using Google Analytics</t>
+  </si>
+  <si>
+    <t>3. UX Design</t>
+  </si>
+  <si>
+    <t>(1) User Experience: The Big Picture</t>
+  </si>
+  <si>
+    <t>(1) Prototyping Techniques for UX Design</t>
+  </si>
+  <si>
+    <t>(2) Psychology of Interaction Design</t>
+  </si>
+  <si>
+    <t>(1) Interaction Design Fundamentals</t>
+  </si>
+  <si>
+    <t>4. Visual Design for UX</t>
+  </si>
+  <si>
+    <t>(1) Big Picture: Visual Design</t>
+  </si>
+  <si>
+    <t>(2) Color Theory Fundamentals</t>
+  </si>
+  <si>
+    <t>(1) Typography: Getting Started</t>
+  </si>
+  <si>
+    <t>(2) Advanced Typography</t>
+  </si>
+  <si>
+    <t>(1) Visual Composition and Layouts</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
@@ -3194,8 +3227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9ABC91-AC07-7449-9663-5AC028EFD06D}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView zoomScale="123" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="123" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3298,106 +3331,157 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>214</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>234</v>
+      </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>235</v>
+      </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>236</v>
+      </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>237</v>
+      </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>238</v>
+      </c>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>239</v>
+      </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>240</v>
+      </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>241</v>
+      </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>242</v>
+      </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>243</v>
+      </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870A06DC-3063-5343-B658-D8DDC01478D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99B1D8A-697B-E24B-964B-87A4E4CF60A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H178"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2065,8 +2065,8 @@
       <c r="D162" t="s">
         <v>216</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>15</v>
+      <c r="E162" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="4:5" ht="16" x14ac:dyDescent="0.2">
@@ -3227,7 +3227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9ABC91-AC07-7449-9663-5AC028EFD06D}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="123" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="123" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99B1D8A-697B-E24B-964B-87A4E4CF60A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71317611-8F09-EC47-9A16-1D67C4039877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="244">
   <si>
     <t>Path:</t>
   </si>
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2073,11 +2073,17 @@
       <c r="D163" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="E163" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="164" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
         <v>218</v>
       </c>
+      <c r="E164" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="165" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
@@ -2087,6 +2093,9 @@
     <row r="166" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
         <v>220</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="4:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71317611-8F09-EC47-9A16-1D67C4039877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A769B-52FE-104A-84A0-92A956BC819D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,7 +1179,7 @@
   <dimension ref="A2:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2073,8 +2073,8 @@
       <c r="D163" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>15</v>
+      <c r="E163" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="4:5" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A769B-52FE-104A-84A0-92A956BC819D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DA05AF-392D-7243-B439-55F446DBE4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,7 +1179,7 @@
   <dimension ref="A2:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G168" sqref="G168"/>
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2094,8 +2094,8 @@
       <c r="D166" t="s">
         <v>220</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>15</v>
+      <c r="E166" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="4:5" x14ac:dyDescent="0.2">
